--- a/Facteurs_impacts_test.xlsx
+++ b/Facteurs_impacts_test.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\louau\Projets\Ademe_RCP_FAI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\louau\Projets\Ademe_RCP_FAI\modele-rcp-fai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4CCC939-5E66-4F51-A0BC-B9E4B9831D51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CB68B39-CD34-4325-8385-3C279A75AF44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{AAB57C62-D826-4C43-9564-02DF6B61712F}"/>
   </bookViews>
@@ -637,7 +637,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1616" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1623" uniqueCount="295">
   <si>
     <t>Réseau fixe</t>
   </si>
@@ -2944,6 +2944,87 @@
     <xf numFmtId="11" fontId="0" fillId="10" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3026,87 +3107,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -3473,10 +3473,10 @@
   <dimension ref="A1:CY112"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B56" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="BO4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="CC16" sqref="CC16"/>
+      <selection pane="bottomRight" activeCell="BU4" sqref="BU4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.4"/>
@@ -3574,269 +3574,269 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:103" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="246"/>
-      <c r="B1" s="249" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="250"/>
-      <c r="D1" s="250"/>
-      <c r="E1" s="250"/>
-      <c r="F1" s="250"/>
-      <c r="G1" s="250"/>
-      <c r="H1" s="250"/>
-      <c r="I1" s="250"/>
-      <c r="J1" s="250"/>
-      <c r="K1" s="250"/>
-      <c r="L1" s="250"/>
-      <c r="M1" s="250"/>
-      <c r="N1" s="250"/>
-      <c r="O1" s="250"/>
-      <c r="P1" s="250"/>
-      <c r="Q1" s="250"/>
-      <c r="R1" s="250"/>
-      <c r="S1" s="250"/>
-      <c r="T1" s="250"/>
-      <c r="U1" s="250"/>
-      <c r="V1" s="250"/>
-      <c r="W1" s="250"/>
-      <c r="X1" s="250"/>
-      <c r="Y1" s="250"/>
-      <c r="Z1" s="250"/>
-      <c r="AA1" s="250"/>
-      <c r="AB1" s="250"/>
-      <c r="AC1" s="250"/>
-      <c r="AD1" s="250"/>
-      <c r="AE1" s="250"/>
-      <c r="AF1" s="250"/>
-      <c r="AG1" s="250"/>
-      <c r="AH1" s="250"/>
-      <c r="AI1" s="251"/>
-      <c r="AJ1" s="252" t="s">
-        <v>1</v>
-      </c>
-      <c r="AK1" s="253"/>
-      <c r="AL1" s="253"/>
-      <c r="AM1" s="250"/>
-      <c r="AN1" s="250"/>
-      <c r="AO1" s="250"/>
-      <c r="AP1" s="250"/>
-      <c r="AQ1" s="250"/>
-      <c r="AR1" s="250"/>
-      <c r="AS1" s="250"/>
-      <c r="AT1" s="250"/>
-      <c r="AU1" s="250"/>
-      <c r="AV1" s="250"/>
-      <c r="AW1" s="250"/>
-      <c r="AX1" s="250"/>
-      <c r="AY1" s="250"/>
-      <c r="AZ1" s="250"/>
-      <c r="BA1" s="250"/>
-      <c r="BB1" s="250"/>
-      <c r="BC1" s="250"/>
-      <c r="BD1" s="250"/>
-      <c r="BE1" s="250"/>
-      <c r="BF1" s="250"/>
-      <c r="BG1" s="250"/>
-      <c r="BH1" s="250"/>
-      <c r="BI1" s="250"/>
-      <c r="BJ1" s="250"/>
-      <c r="BK1" s="250"/>
-      <c r="BL1" s="250"/>
-      <c r="BM1" s="250"/>
-      <c r="BN1" s="250"/>
-      <c r="BO1" s="250"/>
-      <c r="BP1" s="250"/>
-      <c r="BQ1" s="251"/>
-      <c r="BR1" s="252" t="s">
+      <c r="A1" s="273"/>
+      <c r="B1" s="276" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="277"/>
+      <c r="D1" s="277"/>
+      <c r="E1" s="277"/>
+      <c r="F1" s="277"/>
+      <c r="G1" s="277"/>
+      <c r="H1" s="277"/>
+      <c r="I1" s="277"/>
+      <c r="J1" s="277"/>
+      <c r="K1" s="277"/>
+      <c r="L1" s="277"/>
+      <c r="M1" s="277"/>
+      <c r="N1" s="277"/>
+      <c r="O1" s="277"/>
+      <c r="P1" s="277"/>
+      <c r="Q1" s="277"/>
+      <c r="R1" s="277"/>
+      <c r="S1" s="277"/>
+      <c r="T1" s="277"/>
+      <c r="U1" s="277"/>
+      <c r="V1" s="277"/>
+      <c r="W1" s="277"/>
+      <c r="X1" s="277"/>
+      <c r="Y1" s="277"/>
+      <c r="Z1" s="277"/>
+      <c r="AA1" s="277"/>
+      <c r="AB1" s="277"/>
+      <c r="AC1" s="277"/>
+      <c r="AD1" s="277"/>
+      <c r="AE1" s="277"/>
+      <c r="AF1" s="277"/>
+      <c r="AG1" s="277"/>
+      <c r="AH1" s="277"/>
+      <c r="AI1" s="278"/>
+      <c r="AJ1" s="279" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK1" s="280"/>
+      <c r="AL1" s="280"/>
+      <c r="AM1" s="277"/>
+      <c r="AN1" s="277"/>
+      <c r="AO1" s="277"/>
+      <c r="AP1" s="277"/>
+      <c r="AQ1" s="277"/>
+      <c r="AR1" s="277"/>
+      <c r="AS1" s="277"/>
+      <c r="AT1" s="277"/>
+      <c r="AU1" s="277"/>
+      <c r="AV1" s="277"/>
+      <c r="AW1" s="277"/>
+      <c r="AX1" s="277"/>
+      <c r="AY1" s="277"/>
+      <c r="AZ1" s="277"/>
+      <c r="BA1" s="277"/>
+      <c r="BB1" s="277"/>
+      <c r="BC1" s="277"/>
+      <c r="BD1" s="277"/>
+      <c r="BE1" s="277"/>
+      <c r="BF1" s="277"/>
+      <c r="BG1" s="277"/>
+      <c r="BH1" s="277"/>
+      <c r="BI1" s="277"/>
+      <c r="BJ1" s="277"/>
+      <c r="BK1" s="277"/>
+      <c r="BL1" s="277"/>
+      <c r="BM1" s="277"/>
+      <c r="BN1" s="277"/>
+      <c r="BO1" s="277"/>
+      <c r="BP1" s="277"/>
+      <c r="BQ1" s="278"/>
+      <c r="BR1" s="279" t="s">
         <v>2</v>
       </c>
-      <c r="BS1" s="253"/>
-      <c r="BT1" s="253"/>
-      <c r="BU1" s="250"/>
-      <c r="BV1" s="250"/>
-      <c r="BW1" s="250"/>
-      <c r="BX1" s="250"/>
-      <c r="BY1" s="250"/>
-      <c r="BZ1" s="250"/>
-      <c r="CA1" s="250"/>
-      <c r="CB1" s="250"/>
-      <c r="CC1" s="250"/>
-      <c r="CD1" s="250"/>
-      <c r="CE1" s="250"/>
-      <c r="CF1" s="250"/>
-      <c r="CG1" s="250"/>
-      <c r="CH1" s="250"/>
-      <c r="CI1" s="250"/>
-      <c r="CJ1" s="250"/>
-      <c r="CK1" s="250"/>
-      <c r="CL1" s="250"/>
-      <c r="CM1" s="250"/>
-      <c r="CN1" s="250"/>
-      <c r="CO1" s="250"/>
-      <c r="CP1" s="250"/>
-      <c r="CQ1" s="250"/>
-      <c r="CR1" s="250"/>
-      <c r="CS1" s="250"/>
-      <c r="CT1" s="250"/>
-      <c r="CU1" s="250"/>
-      <c r="CV1" s="250"/>
-      <c r="CW1" s="250"/>
-      <c r="CX1" s="250"/>
-      <c r="CY1" s="251"/>
+      <c r="BS1" s="280"/>
+      <c r="BT1" s="280"/>
+      <c r="BU1" s="277"/>
+      <c r="BV1" s="277"/>
+      <c r="BW1" s="277"/>
+      <c r="BX1" s="277"/>
+      <c r="BY1" s="277"/>
+      <c r="BZ1" s="277"/>
+      <c r="CA1" s="277"/>
+      <c r="CB1" s="277"/>
+      <c r="CC1" s="277"/>
+      <c r="CD1" s="277"/>
+      <c r="CE1" s="277"/>
+      <c r="CF1" s="277"/>
+      <c r="CG1" s="277"/>
+      <c r="CH1" s="277"/>
+      <c r="CI1" s="277"/>
+      <c r="CJ1" s="277"/>
+      <c r="CK1" s="277"/>
+      <c r="CL1" s="277"/>
+      <c r="CM1" s="277"/>
+      <c r="CN1" s="277"/>
+      <c r="CO1" s="277"/>
+      <c r="CP1" s="277"/>
+      <c r="CQ1" s="277"/>
+      <c r="CR1" s="277"/>
+      <c r="CS1" s="277"/>
+      <c r="CT1" s="277"/>
+      <c r="CU1" s="277"/>
+      <c r="CV1" s="277"/>
+      <c r="CW1" s="277"/>
+      <c r="CX1" s="277"/>
+      <c r="CY1" s="278"/>
     </row>
     <row r="2" spans="1:103" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="247"/>
+      <c r="A2" s="274"/>
       <c r="B2" s="2"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
-      <c r="E2" s="254" t="s">
+      <c r="E2" s="281" t="s">
         <v>270</v>
       </c>
-      <c r="F2" s="255"/>
-      <c r="G2" s="255"/>
-      <c r="H2" s="255"/>
-      <c r="I2" s="255"/>
-      <c r="J2" s="256"/>
-      <c r="K2" s="257" t="s">
+      <c r="F2" s="282"/>
+      <c r="G2" s="282"/>
+      <c r="H2" s="282"/>
+      <c r="I2" s="282"/>
+      <c r="J2" s="283"/>
+      <c r="K2" s="284" t="s">
         <v>271</v>
       </c>
-      <c r="L2" s="258"/>
-      <c r="M2" s="258"/>
-      <c r="N2" s="258"/>
-      <c r="O2" s="258"/>
-      <c r="P2" s="259"/>
-      <c r="Q2" s="271" t="s">
+      <c r="L2" s="285"/>
+      <c r="M2" s="285"/>
+      <c r="N2" s="285"/>
+      <c r="O2" s="285"/>
+      <c r="P2" s="286"/>
+      <c r="Q2" s="263" t="s">
         <v>273</v>
       </c>
-      <c r="R2" s="272"/>
-      <c r="S2" s="272"/>
-      <c r="T2" s="272"/>
-      <c r="U2" s="272"/>
-      <c r="V2" s="273"/>
-      <c r="W2" s="260" t="s">
+      <c r="R2" s="264"/>
+      <c r="S2" s="264"/>
+      <c r="T2" s="264"/>
+      <c r="U2" s="264"/>
+      <c r="V2" s="265"/>
+      <c r="W2" s="287" t="s">
         <v>278</v>
       </c>
-      <c r="X2" s="261"/>
-      <c r="Y2" s="261"/>
-      <c r="Z2" s="261"/>
-      <c r="AA2" s="261"/>
-      <c r="AB2" s="262"/>
-      <c r="AC2" s="263" t="s">
+      <c r="X2" s="288"/>
+      <c r="Y2" s="288"/>
+      <c r="Z2" s="288"/>
+      <c r="AA2" s="288"/>
+      <c r="AB2" s="289"/>
+      <c r="AC2" s="290" t="s">
         <v>272</v>
       </c>
-      <c r="AD2" s="244"/>
-      <c r="AE2" s="244"/>
-      <c r="AF2" s="244"/>
-      <c r="AG2" s="244"/>
-      <c r="AH2" s="245"/>
+      <c r="AD2" s="271"/>
+      <c r="AE2" s="271"/>
+      <c r="AF2" s="271"/>
+      <c r="AG2" s="271"/>
+      <c r="AH2" s="272"/>
       <c r="AI2" s="4"/>
       <c r="AJ2" s="5"/>
       <c r="AK2" s="6"/>
       <c r="AL2" s="7"/>
-      <c r="AM2" s="264" t="str">
+      <c r="AM2" s="291" t="str">
         <f>E2</f>
         <v>Indicateurs environnementaux - Phase de fabrication
 Facteurs NegaOctet + Pénalité 100%</v>
       </c>
-      <c r="AN2" s="265"/>
-      <c r="AO2" s="265"/>
-      <c r="AP2" s="265"/>
-      <c r="AQ2" s="265"/>
-      <c r="AR2" s="266"/>
-      <c r="AS2" s="267" t="str">
+      <c r="AN2" s="292"/>
+      <c r="AO2" s="292"/>
+      <c r="AP2" s="292"/>
+      <c r="AQ2" s="292"/>
+      <c r="AR2" s="293"/>
+      <c r="AS2" s="294" t="str">
         <f>K2</f>
         <v>Indicateurs environnementaux - Phase de distribution
 Facteurs NegaOctet + Pénalité 100%</v>
       </c>
-      <c r="AT2" s="268"/>
-      <c r="AU2" s="268"/>
-      <c r="AV2" s="268"/>
-      <c r="AW2" s="268"/>
-      <c r="AX2" s="269"/>
-      <c r="AY2" s="274" t="str">
+      <c r="AT2" s="295"/>
+      <c r="AU2" s="295"/>
+      <c r="AV2" s="295"/>
+      <c r="AW2" s="295"/>
+      <c r="AX2" s="296"/>
+      <c r="AY2" s="266" t="str">
         <f>Q2</f>
         <v>Indicateurs environnementaux - Phase d'utilisation</v>
       </c>
-      <c r="AZ2" s="275"/>
-      <c r="BA2" s="275"/>
-      <c r="BB2" s="275"/>
-      <c r="BC2" s="275"/>
-      <c r="BD2" s="276"/>
-      <c r="BE2" s="270" t="str">
+      <c r="AZ2" s="267"/>
+      <c r="BA2" s="267"/>
+      <c r="BB2" s="267"/>
+      <c r="BC2" s="267"/>
+      <c r="BD2" s="268"/>
+      <c r="BE2" s="297" t="str">
         <f>W2</f>
         <v>Indicateurs environnementaux - Phase de reconditionnement</v>
       </c>
-      <c r="BF2" s="261"/>
-      <c r="BG2" s="261"/>
-      <c r="BH2" s="261"/>
-      <c r="BI2" s="261"/>
-      <c r="BJ2" s="262"/>
-      <c r="BK2" s="243" t="str">
+      <c r="BF2" s="288"/>
+      <c r="BG2" s="288"/>
+      <c r="BH2" s="288"/>
+      <c r="BI2" s="288"/>
+      <c r="BJ2" s="289"/>
+      <c r="BK2" s="270" t="str">
         <f>AC2</f>
         <v>Indicateurs environnementaux - Phase de fin de vie
 Facteurs NegaOctet + Pénalité 100%</v>
       </c>
-      <c r="BL2" s="244"/>
-      <c r="BM2" s="244"/>
-      <c r="BN2" s="244"/>
-      <c r="BO2" s="244"/>
-      <c r="BP2" s="245"/>
+      <c r="BL2" s="271"/>
+      <c r="BM2" s="271"/>
+      <c r="BN2" s="271"/>
+      <c r="BO2" s="271"/>
+      <c r="BP2" s="272"/>
       <c r="BQ2" s="8"/>
       <c r="BR2" s="5"/>
       <c r="BS2" s="7"/>
       <c r="BT2" s="7"/>
-      <c r="BU2" s="264" t="str">
+      <c r="BU2" s="291" t="str">
         <f>AM2</f>
         <v>Indicateurs environnementaux - Phase de fabrication
 Facteurs NegaOctet + Pénalité 100%</v>
       </c>
-      <c r="BV2" s="265"/>
-      <c r="BW2" s="265"/>
-      <c r="BX2" s="265"/>
-      <c r="BY2" s="265"/>
-      <c r="BZ2" s="266"/>
-      <c r="CA2" s="267" t="str">
+      <c r="BV2" s="292"/>
+      <c r="BW2" s="292"/>
+      <c r="BX2" s="292"/>
+      <c r="BY2" s="292"/>
+      <c r="BZ2" s="293"/>
+      <c r="CA2" s="294" t="str">
         <f>AS2</f>
         <v>Indicateurs environnementaux - Phase de distribution
 Facteurs NegaOctet + Pénalité 100%</v>
       </c>
-      <c r="CB2" s="268"/>
-      <c r="CC2" s="268"/>
-      <c r="CD2" s="268"/>
-      <c r="CE2" s="268"/>
-      <c r="CF2" s="269"/>
-      <c r="CG2" s="274" t="str">
+      <c r="CB2" s="295"/>
+      <c r="CC2" s="295"/>
+      <c r="CD2" s="295"/>
+      <c r="CE2" s="295"/>
+      <c r="CF2" s="296"/>
+      <c r="CG2" s="266" t="str">
         <f>AY2</f>
         <v>Indicateurs environnementaux - Phase d'utilisation</v>
       </c>
-      <c r="CH2" s="275"/>
-      <c r="CI2" s="275"/>
-      <c r="CJ2" s="275"/>
-      <c r="CK2" s="275"/>
-      <c r="CL2" s="276"/>
-      <c r="CM2" s="270" t="str">
+      <c r="CH2" s="267"/>
+      <c r="CI2" s="267"/>
+      <c r="CJ2" s="267"/>
+      <c r="CK2" s="267"/>
+      <c r="CL2" s="268"/>
+      <c r="CM2" s="297" t="str">
         <f>W2</f>
         <v>Indicateurs environnementaux - Phase de reconditionnement</v>
       </c>
-      <c r="CN2" s="261"/>
-      <c r="CO2" s="261"/>
-      <c r="CP2" s="261"/>
-      <c r="CQ2" s="261"/>
-      <c r="CR2" s="262"/>
-      <c r="CS2" s="243" t="str">
+      <c r="CN2" s="288"/>
+      <c r="CO2" s="288"/>
+      <c r="CP2" s="288"/>
+      <c r="CQ2" s="288"/>
+      <c r="CR2" s="289"/>
+      <c r="CS2" s="270" t="str">
         <f>BK2</f>
         <v>Indicateurs environnementaux - Phase de fin de vie
 Facteurs NegaOctet + Pénalité 100%</v>
       </c>
-      <c r="CT2" s="244"/>
-      <c r="CU2" s="244"/>
-      <c r="CV2" s="244"/>
-      <c r="CW2" s="244"/>
-      <c r="CX2" s="245"/>
+      <c r="CT2" s="271"/>
+      <c r="CU2" s="271"/>
+      <c r="CV2" s="271"/>
+      <c r="CW2" s="271"/>
+      <c r="CX2" s="272"/>
       <c r="CY2" s="8"/>
     </row>
     <row r="3" spans="1:103" s="1" customFormat="1" ht="56.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="248"/>
+      <c r="A3" s="275"/>
       <c r="B3" s="9" t="s">
         <v>3</v>
       </c>
@@ -4213,10 +4213,10 @@
       </c>
     </row>
     <row r="4" spans="1:103" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="291" t="s">
+      <c r="A4" s="243" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="290" t="s">
+      <c r="B4" s="246" t="s">
         <v>14</v>
       </c>
       <c r="C4" s="14" t="s">
@@ -4316,7 +4316,7 @@
         <v>1</v>
       </c>
       <c r="AI4" s="129"/>
-      <c r="AJ4" s="290" t="s">
+      <c r="AJ4" s="246" t="s">
         <v>17</v>
       </c>
       <c r="AK4" s="14" t="s">
@@ -4416,7 +4416,7 @@
         <v>1</v>
       </c>
       <c r="BQ4" s="151"/>
-      <c r="BR4" s="290" t="s">
+      <c r="BR4" s="246" t="s">
         <v>14</v>
       </c>
       <c r="BS4" s="14" t="s">
@@ -4518,8 +4518,8 @@
       <c r="CY4" s="129"/>
     </row>
     <row r="5" spans="1:103" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="292"/>
-      <c r="B5" s="278"/>
+      <c r="A5" s="244"/>
+      <c r="B5" s="247"/>
       <c r="C5" t="s">
         <v>21</v>
       </c>
@@ -4617,7 +4617,7 @@
         <v>1</v>
       </c>
       <c r="AI5" s="64"/>
-      <c r="AJ5" s="294"/>
+      <c r="AJ5" s="249"/>
       <c r="AK5" t="s">
         <v>22</v>
       </c>
@@ -4715,7 +4715,7 @@
         <v>1</v>
       </c>
       <c r="BQ5" s="24"/>
-      <c r="BR5" s="278"/>
+      <c r="BR5" s="247"/>
       <c r="BS5" s="149" t="s">
         <v>23</v>
       </c>
@@ -4815,8 +4815,8 @@
       <c r="CY5" s="80"/>
     </row>
     <row r="6" spans="1:103" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="292"/>
-      <c r="B6" s="278"/>
+      <c r="A6" s="244"/>
+      <c r="B6" s="247"/>
       <c r="C6" t="s">
         <v>24</v>
       </c>
@@ -4914,7 +4914,7 @@
         <v>1</v>
       </c>
       <c r="AI6" s="68"/>
-      <c r="AJ6" s="294"/>
+      <c r="AJ6" s="249"/>
       <c r="AK6" t="s">
         <v>25</v>
       </c>
@@ -5012,7 +5012,7 @@
         <v>1</v>
       </c>
       <c r="BQ6" s="24"/>
-      <c r="BR6" s="278"/>
+      <c r="BR6" s="247"/>
       <c r="BS6" t="s">
         <v>26</v>
       </c>
@@ -5112,8 +5112,8 @@
       <c r="CY6" s="80"/>
     </row>
     <row r="7" spans="1:103" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="292"/>
-      <c r="B7" s="278"/>
+      <c r="A7" s="244"/>
+      <c r="B7" s="247"/>
       <c r="C7" t="s">
         <v>27</v>
       </c>
@@ -5211,7 +5211,7 @@
         <v>1</v>
       </c>
       <c r="AI7" s="68"/>
-      <c r="AJ7" s="294"/>
+      <c r="AJ7" s="249"/>
       <c r="AK7" t="s">
         <v>28</v>
       </c>
@@ -5309,7 +5309,7 @@
         <v>1</v>
       </c>
       <c r="BQ7" s="24"/>
-      <c r="BR7" s="278"/>
+      <c r="BR7" s="247"/>
       <c r="BS7" t="s">
         <v>29</v>
       </c>
@@ -5409,8 +5409,8 @@
       <c r="CY7" s="80"/>
     </row>
     <row r="8" spans="1:103" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="292"/>
-      <c r="B8" s="278"/>
+      <c r="A8" s="244"/>
+      <c r="B8" s="247"/>
       <c r="C8" t="s">
         <v>30</v>
       </c>
@@ -5508,7 +5508,7 @@
         <v>1</v>
       </c>
       <c r="AI8" s="68"/>
-      <c r="AJ8" s="294"/>
+      <c r="AJ8" s="249"/>
       <c r="AK8" t="s">
         <v>31</v>
       </c>
@@ -5606,7 +5606,7 @@
         <v>1</v>
       </c>
       <c r="BQ8" s="24"/>
-      <c r="BR8" s="278"/>
+      <c r="BR8" s="247"/>
       <c r="BS8" t="s">
         <v>32</v>
       </c>
@@ -5706,8 +5706,8 @@
       <c r="CY8" s="80"/>
     </row>
     <row r="9" spans="1:103" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="292"/>
-      <c r="B9" s="278"/>
+      <c r="A9" s="244"/>
+      <c r="B9" s="247"/>
       <c r="C9" t="s">
         <v>33</v>
       </c>
@@ -5805,7 +5805,7 @@
         <v>1</v>
       </c>
       <c r="AI9" s="68"/>
-      <c r="AJ9" s="294"/>
+      <c r="AJ9" s="249"/>
       <c r="AK9" t="s">
         <v>34</v>
       </c>
@@ -5903,7 +5903,7 @@
         <v>1</v>
       </c>
       <c r="BQ9" s="24"/>
-      <c r="BR9" s="278"/>
+      <c r="BR9" s="247"/>
       <c r="BS9" t="s">
         <v>35</v>
       </c>
@@ -6003,8 +6003,8 @@
       <c r="CY9" s="80"/>
     </row>
     <row r="10" spans="1:103" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="292"/>
-      <c r="B10" s="278"/>
+      <c r="A10" s="244"/>
+      <c r="B10" s="247"/>
       <c r="C10" t="s">
         <v>36</v>
       </c>
@@ -6102,7 +6102,7 @@
         <v>1</v>
       </c>
       <c r="AI10" s="68"/>
-      <c r="AJ10" s="294"/>
+      <c r="AJ10" s="249"/>
       <c r="AK10" t="s">
         <v>37</v>
       </c>
@@ -6200,7 +6200,7 @@
         <v>1</v>
       </c>
       <c r="BQ10" s="24"/>
-      <c r="BR10" s="278"/>
+      <c r="BR10" s="247"/>
       <c r="BS10" s="149" t="s">
         <v>38</v>
       </c>
@@ -6300,8 +6300,8 @@
       <c r="CY10" s="80"/>
     </row>
     <row r="11" spans="1:103" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="292"/>
-      <c r="B11" s="278"/>
+      <c r="A11" s="244"/>
+      <c r="B11" s="247"/>
       <c r="C11" t="s">
         <v>39</v>
       </c>
@@ -6399,7 +6399,7 @@
         <v>1</v>
       </c>
       <c r="AI11" s="68"/>
-      <c r="AJ11" s="294"/>
+      <c r="AJ11" s="249"/>
       <c r="AK11" t="s">
         <v>40</v>
       </c>
@@ -6497,7 +6497,7 @@
         <v>1</v>
       </c>
       <c r="BQ11" s="24"/>
-      <c r="BR11" s="280"/>
+      <c r="BR11" s="248"/>
       <c r="BS11" s="26" t="s">
         <v>41</v>
       </c>
@@ -6597,8 +6597,8 @@
       <c r="CY11" s="131"/>
     </row>
     <row r="12" spans="1:103" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="292"/>
-      <c r="B12" s="278"/>
+      <c r="A12" s="244"/>
+      <c r="B12" s="247"/>
       <c r="C12" t="s">
         <v>42</v>
       </c>
@@ -6696,7 +6696,7 @@
         <v>1</v>
       </c>
       <c r="AI12" s="68"/>
-      <c r="AJ12" s="295"/>
+      <c r="AJ12" s="250"/>
       <c r="AK12" s="26" t="s">
         <v>43</v>
       </c>
@@ -6794,7 +6794,7 @@
         <v>1</v>
       </c>
       <c r="BQ12" s="24"/>
-      <c r="BR12" s="282" t="s">
+      <c r="BR12" s="251" t="s">
         <v>44</v>
       </c>
       <c r="BS12" s="29" t="s">
@@ -6896,8 +6896,8 @@
       <c r="CY12" s="130"/>
     </row>
     <row r="13" spans="1:103" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="292"/>
-      <c r="B13" s="280"/>
+      <c r="A13" s="244"/>
+      <c r="B13" s="248"/>
       <c r="C13" t="s">
         <v>46</v>
       </c>
@@ -7097,7 +7097,7 @@
       <c r="BQ13" s="152" t="s">
         <v>274</v>
       </c>
-      <c r="BR13" s="296"/>
+      <c r="BR13" s="252"/>
       <c r="BS13" s="36" t="s">
         <v>50</v>
       </c>
@@ -7197,8 +7197,8 @@
       <c r="CY13" s="80"/>
     </row>
     <row r="14" spans="1:103" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="292"/>
-      <c r="B14" s="281" t="s">
+      <c r="A14" s="244"/>
+      <c r="B14" s="262" t="s">
         <v>44</v>
       </c>
       <c r="C14" s="29" t="s">
@@ -7400,7 +7400,7 @@
       <c r="BQ14" s="152" t="s">
         <v>274</v>
       </c>
-      <c r="BR14" s="297"/>
+      <c r="BR14" s="253"/>
       <c r="BS14" s="39" t="s">
         <v>52</v>
       </c>
@@ -7500,8 +7500,8 @@
       <c r="CY14" s="131"/>
     </row>
     <row r="15" spans="1:103" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="292"/>
-      <c r="B15" s="281"/>
+      <c r="A15" s="244"/>
+      <c r="B15" s="262"/>
       <c r="C15" s="39" t="s">
         <v>52</v>
       </c>
@@ -7630,7 +7630,7 @@
       <c r="BO15" s="23"/>
       <c r="BP15" s="23"/>
       <c r="BQ15" s="24"/>
-      <c r="BR15" s="282" t="s">
+      <c r="BR15" s="251" t="s">
         <v>53</v>
       </c>
       <c r="BS15" s="29" t="s">
@@ -7732,8 +7732,8 @@
       <c r="CY15" s="80"/>
     </row>
     <row r="16" spans="1:103" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="292"/>
-      <c r="B16" s="285" t="s">
+      <c r="A16" s="244"/>
+      <c r="B16" s="260" t="s">
         <v>53</v>
       </c>
       <c r="C16" s="42" t="s">
@@ -7864,7 +7864,7 @@
       <c r="BO16" s="23"/>
       <c r="BP16" s="23"/>
       <c r="BQ16" s="24"/>
-      <c r="BR16" s="283"/>
+      <c r="BR16" s="258"/>
       <c r="BS16" s="36" t="s">
         <v>55</v>
       </c>
@@ -7964,8 +7964,8 @@
       <c r="CY16" s="80"/>
     </row>
     <row r="17" spans="1:103" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="292"/>
-      <c r="B17" s="286"/>
+      <c r="A17" s="244"/>
+      <c r="B17" s="261"/>
       <c r="C17" s="26" t="s">
         <v>55</v>
       </c>
@@ -8094,7 +8094,7 @@
       <c r="BO17" s="23"/>
       <c r="BP17" s="23"/>
       <c r="BQ17" s="24"/>
-      <c r="BR17" s="283"/>
+      <c r="BR17" s="258"/>
       <c r="BS17" s="36" t="s">
         <v>56</v>
       </c>
@@ -8194,8 +8194,8 @@
       <c r="CY17" s="80"/>
     </row>
     <row r="18" spans="1:103" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="292"/>
-      <c r="B18" s="277" t="s">
+      <c r="A18" s="244"/>
+      <c r="B18" s="254" t="s">
         <v>57</v>
       </c>
       <c r="C18" s="29" t="s">
@@ -8326,7 +8326,7 @@
       <c r="BO18" s="23"/>
       <c r="BP18" s="23"/>
       <c r="BQ18" s="24"/>
-      <c r="BR18" s="283"/>
+      <c r="BR18" s="258"/>
       <c r="BS18" s="137" t="s">
         <v>58</v>
       </c>
@@ -8426,8 +8426,8 @@
       <c r="CY18" s="80"/>
     </row>
     <row r="19" spans="1:103" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="292"/>
-      <c r="B19" s="278"/>
+      <c r="A19" s="244"/>
+      <c r="B19" s="247"/>
       <c r="C19" s="44" t="s">
         <v>59</v>
       </c>
@@ -8556,7 +8556,7 @@
       <c r="BO19" s="23"/>
       <c r="BP19" s="23"/>
       <c r="BQ19" s="24"/>
-      <c r="BR19" s="283"/>
+      <c r="BR19" s="258"/>
       <c r="BS19" s="36" t="s">
         <v>61</v>
       </c>
@@ -8656,8 +8656,8 @@
       <c r="CY19" s="80"/>
     </row>
     <row r="20" spans="1:103" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="292"/>
-      <c r="B20" s="280"/>
+      <c r="A20" s="244"/>
+      <c r="B20" s="248"/>
       <c r="C20" s="45" t="s">
         <v>62</v>
       </c>
@@ -8786,7 +8786,7 @@
       <c r="BO20" s="23"/>
       <c r="BP20" s="23"/>
       <c r="BQ20" s="24"/>
-      <c r="BR20" s="283"/>
+      <c r="BR20" s="258"/>
       <c r="BS20" s="137" t="s">
         <v>64</v>
       </c>
@@ -8888,8 +8888,8 @@
       </c>
     </row>
     <row r="21" spans="1:103" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="292"/>
-      <c r="B21" s="277" t="s">
+      <c r="A21" s="244"/>
+      <c r="B21" s="254" t="s">
         <v>65</v>
       </c>
       <c r="C21" s="29" t="s">
@@ -9021,7 +9021,7 @@
       <c r="BO21" s="23"/>
       <c r="BP21" s="23"/>
       <c r="BQ21" s="24"/>
-      <c r="BR21" s="283"/>
+      <c r="BR21" s="258"/>
       <c r="BS21" s="36" t="s">
         <v>66</v>
       </c>
@@ -9123,8 +9123,8 @@
       </c>
     </row>
     <row r="22" spans="1:103" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="292"/>
-      <c r="B22" s="278"/>
+      <c r="A22" s="244"/>
+      <c r="B22" s="247"/>
       <c r="C22" s="44" t="s">
         <v>59</v>
       </c>
@@ -9254,7 +9254,7 @@
       <c r="BO22" s="23"/>
       <c r="BP22" s="23"/>
       <c r="BQ22" s="24"/>
-      <c r="BR22" s="284"/>
+      <c r="BR22" s="259"/>
       <c r="BS22" s="39" t="s">
         <v>67</v>
       </c>
@@ -9356,8 +9356,8 @@
       </c>
     </row>
     <row r="23" spans="1:103" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="292"/>
-      <c r="B23" s="278"/>
+      <c r="A23" s="244"/>
+      <c r="B23" s="247"/>
       <c r="C23" s="44" t="s">
         <v>62</v>
       </c>
@@ -9487,7 +9487,7 @@
       <c r="BO23" s="21"/>
       <c r="BP23" s="21"/>
       <c r="BQ23" s="22"/>
-      <c r="BR23" s="278" t="s">
+      <c r="BR23" s="247" t="s">
         <v>68</v>
       </c>
       <c r="BS23" t="s">
@@ -9589,8 +9589,8 @@
       <c r="CY23" s="64"/>
     </row>
     <row r="24" spans="1:103" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="292"/>
-      <c r="B24" s="278"/>
+      <c r="A24" s="244"/>
+      <c r="B24" s="247"/>
       <c r="C24" s="44" t="s">
         <v>69</v>
       </c>
@@ -9721,7 +9721,7 @@
       <c r="BO24" s="23"/>
       <c r="BP24" s="23"/>
       <c r="BQ24" s="24"/>
-      <c r="BR24" s="278"/>
+      <c r="BR24" s="247"/>
       <c r="BS24" s="51" t="s">
         <v>70</v>
       </c>
@@ -9821,8 +9821,8 @@
       <c r="CY24" s="68"/>
     </row>
     <row r="25" spans="1:103" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="292"/>
-      <c r="B25" s="278"/>
+      <c r="A25" s="244"/>
+      <c r="B25" s="247"/>
       <c r="C25" s="44" t="s">
         <v>71</v>
       </c>
@@ -9952,7 +9952,7 @@
       <c r="BO25" s="21"/>
       <c r="BP25" s="21"/>
       <c r="BQ25" s="22"/>
-      <c r="BR25" s="278"/>
+      <c r="BR25" s="247"/>
       <c r="BS25" s="51" t="s">
         <v>72</v>
       </c>
@@ -10052,8 +10052,8 @@
       <c r="CY25" s="68"/>
     </row>
     <row r="26" spans="1:103" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="292"/>
-      <c r="B26" s="278"/>
+      <c r="A26" s="244"/>
+      <c r="B26" s="247"/>
       <c r="C26" s="44" t="s">
         <v>73</v>
       </c>
@@ -10184,7 +10184,7 @@
       <c r="BO26" s="23"/>
       <c r="BP26" s="23"/>
       <c r="BQ26" s="24"/>
-      <c r="BR26" s="278"/>
+      <c r="BR26" s="247"/>
       <c r="BS26" s="52" t="s">
         <v>71</v>
       </c>
@@ -10284,8 +10284,8 @@
       <c r="CY26" s="68"/>
     </row>
     <row r="27" spans="1:103" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="292"/>
-      <c r="B27" s="278"/>
+      <c r="A27" s="244"/>
+      <c r="B27" s="247"/>
       <c r="C27" s="146" t="s">
         <v>75</v>
       </c>
@@ -10416,7 +10416,7 @@
       <c r="BO27" s="23"/>
       <c r="BP27" s="23"/>
       <c r="BQ27" s="24"/>
-      <c r="BR27" s="278"/>
+      <c r="BR27" s="247"/>
       <c r="BS27" s="52" t="s">
         <v>76</v>
       </c>
@@ -10516,8 +10516,8 @@
       <c r="CY27" s="68"/>
     </row>
     <row r="28" spans="1:103" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="292"/>
-      <c r="B28" s="278"/>
+      <c r="A28" s="244"/>
+      <c r="B28" s="247"/>
       <c r="C28" s="44" t="s">
         <v>76</v>
       </c>
@@ -10648,7 +10648,7 @@
       <c r="BO28" s="23"/>
       <c r="BP28" s="23"/>
       <c r="BQ28" s="24"/>
-      <c r="BR28" s="277" t="s">
+      <c r="BR28" s="254" t="s">
         <v>289</v>
       </c>
       <c r="BS28" s="42" t="s">
@@ -10750,8 +10750,8 @@
       <c r="CY28" s="64"/>
     </row>
     <row r="29" spans="1:103" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="292"/>
-      <c r="B29" s="278"/>
+      <c r="A29" s="244"/>
+      <c r="B29" s="247"/>
       <c r="C29" s="44" t="s">
         <v>79</v>
       </c>
@@ -10881,7 +10881,7 @@
       <c r="BO29" s="21"/>
       <c r="BP29" s="21"/>
       <c r="BQ29" s="22"/>
-      <c r="BR29" s="278"/>
+      <c r="BR29" s="247"/>
       <c r="BS29" s="51" t="s">
         <v>70</v>
       </c>
@@ -10981,8 +10981,8 @@
       <c r="CY29" s="68"/>
     </row>
     <row r="30" spans="1:103" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="292"/>
-      <c r="B30" s="278"/>
+      <c r="A30" s="244"/>
+      <c r="B30" s="247"/>
       <c r="C30" s="44" t="s">
         <v>80</v>
       </c>
@@ -11112,7 +11112,7 @@
       <c r="BO30" s="21"/>
       <c r="BP30" s="21"/>
       <c r="BQ30" s="22"/>
-      <c r="BR30" s="280"/>
+      <c r="BR30" s="248"/>
       <c r="BS30" s="53" t="s">
         <v>72</v>
       </c>
@@ -11212,8 +11212,8 @@
       <c r="CY30" s="66"/>
     </row>
     <row r="31" spans="1:103" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="292"/>
-      <c r="B31" s="280"/>
+      <c r="A31" s="244"/>
+      <c r="B31" s="248"/>
       <c r="C31" s="45" t="s">
         <v>81</v>
       </c>
@@ -11343,7 +11343,7 @@
       <c r="BO31" s="21"/>
       <c r="BP31" s="21"/>
       <c r="BQ31" s="22"/>
-      <c r="BR31" s="277" t="s">
+      <c r="BR31" s="254" t="s">
         <v>290</v>
       </c>
       <c r="BS31" s="42" t="s">
@@ -11445,8 +11445,8 @@
       <c r="CY31" s="68"/>
     </row>
     <row r="32" spans="1:103" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="292"/>
-      <c r="B32" s="277" t="s">
+      <c r="A32" s="244"/>
+      <c r="B32" s="254" t="s">
         <v>82</v>
       </c>
       <c r="C32" t="s">
@@ -11578,7 +11578,7 @@
       <c r="BO32" s="21"/>
       <c r="BP32" s="21"/>
       <c r="BQ32" s="22"/>
-      <c r="BR32" s="278"/>
+      <c r="BR32" s="247"/>
       <c r="BS32" s="51" t="s">
         <v>70</v>
       </c>
@@ -11678,8 +11678,8 @@
       <c r="CY32" s="68"/>
     </row>
     <row r="33" spans="1:103" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="292"/>
-      <c r="B33" s="278"/>
+      <c r="A33" s="244"/>
+      <c r="B33" s="247"/>
       <c r="C33" s="51" t="s">
         <v>59</v>
       </c>
@@ -11809,7 +11809,7 @@
       <c r="BO33" s="21"/>
       <c r="BP33" s="21"/>
       <c r="BQ33" s="22"/>
-      <c r="BR33" s="280"/>
+      <c r="BR33" s="248"/>
       <c r="BS33" s="53" t="s">
         <v>72</v>
       </c>
@@ -11909,8 +11909,8 @@
       <c r="CY33" s="66"/>
     </row>
     <row r="34" spans="1:103" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="292"/>
-      <c r="B34" s="278"/>
+      <c r="A34" s="244"/>
+      <c r="B34" s="247"/>
       <c r="C34" s="51" t="s">
         <v>62</v>
       </c>
@@ -12074,8 +12074,8 @@
       <c r="CY34" s="22"/>
     </row>
     <row r="35" spans="1:103" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="292"/>
-      <c r="B35" s="278"/>
+      <c r="A35" s="244"/>
+      <c r="B35" s="247"/>
       <c r="C35" s="51" t="s">
         <v>69</v>
       </c>
@@ -12239,8 +12239,8 @@
       <c r="CY35" s="22"/>
     </row>
     <row r="36" spans="1:103" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="292"/>
-      <c r="B36" s="278"/>
+      <c r="A36" s="244"/>
+      <c r="B36" s="247"/>
       <c r="C36" s="51" t="s">
         <v>71</v>
       </c>
@@ -12404,8 +12404,8 @@
       <c r="CY36" s="22"/>
     </row>
     <row r="37" spans="1:103" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="292"/>
-      <c r="B37" s="278"/>
+      <c r="A37" s="244"/>
+      <c r="B37" s="247"/>
       <c r="C37" s="51" t="s">
         <v>73</v>
       </c>
@@ -12569,8 +12569,8 @@
       <c r="CY37" s="22"/>
     </row>
     <row r="38" spans="1:103" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="292"/>
-      <c r="B38" s="278"/>
+      <c r="A38" s="244"/>
+      <c r="B38" s="247"/>
       <c r="C38" s="148" t="s">
         <v>75</v>
       </c>
@@ -12734,8 +12734,8 @@
       <c r="CY38" s="22"/>
     </row>
     <row r="39" spans="1:103" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="292"/>
-      <c r="B39" s="278"/>
+      <c r="A39" s="244"/>
+      <c r="B39" s="247"/>
       <c r="C39" s="51" t="s">
         <v>76</v>
       </c>
@@ -12899,8 +12899,8 @@
       <c r="CY39" s="22"/>
     </row>
     <row r="40" spans="1:103" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="292"/>
-      <c r="B40" s="278"/>
+      <c r="A40" s="244"/>
+      <c r="B40" s="247"/>
       <c r="C40" s="51" t="s">
         <v>79</v>
       </c>
@@ -13065,8 +13065,8 @@
       <c r="CY40" s="22"/>
     </row>
     <row r="41" spans="1:103" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="292"/>
-      <c r="B41" s="278"/>
+      <c r="A41" s="244"/>
+      <c r="B41" s="247"/>
       <c r="C41" s="51" t="s">
         <v>80</v>
       </c>
@@ -13231,8 +13231,8 @@
       <c r="CY41" s="22"/>
     </row>
     <row r="42" spans="1:103" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="292"/>
-      <c r="B42" s="278"/>
+      <c r="A42" s="244"/>
+      <c r="B42" s="247"/>
       <c r="C42" s="51" t="s">
         <v>81</v>
       </c>
@@ -13397,8 +13397,8 @@
       <c r="CY42" s="22"/>
     </row>
     <row r="43" spans="1:103" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="292"/>
-      <c r="B43" s="278"/>
+      <c r="A43" s="244"/>
+      <c r="B43" s="247"/>
       <c r="C43" s="51" t="s">
         <v>85</v>
       </c>
@@ -13563,8 +13563,8 @@
       <c r="CY43" s="22"/>
     </row>
     <row r="44" spans="1:103" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="292"/>
-      <c r="B44" s="278"/>
+      <c r="A44" s="244"/>
+      <c r="B44" s="247"/>
       <c r="C44" s="51" t="s">
         <v>86</v>
       </c>
@@ -13729,8 +13729,8 @@
       <c r="CY44" s="22"/>
     </row>
     <row r="45" spans="1:103" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="292"/>
-      <c r="B45" s="278"/>
+      <c r="A45" s="244"/>
+      <c r="B45" s="247"/>
       <c r="C45" s="222" t="s">
         <v>87</v>
       </c>
@@ -13894,8 +13894,8 @@
       <c r="CY45" s="22"/>
     </row>
     <row r="46" spans="1:103" ht="17.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="293"/>
-      <c r="B46" s="279"/>
+      <c r="A46" s="245"/>
+      <c r="B46" s="269"/>
       <c r="C46" s="224" t="s">
         <v>88</v>
       </c>
@@ -14063,10 +14063,10 @@
       <c r="CY46" s="58"/>
     </row>
     <row r="47" spans="1:103" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="287" t="s">
+      <c r="A47" s="255" t="s">
         <v>89</v>
       </c>
-      <c r="B47" s="290" t="s">
+      <c r="B47" s="246" t="s">
         <v>14</v>
       </c>
       <c r="C47" s="14" t="s">
@@ -14166,7 +14166,7 @@
         <v>1</v>
       </c>
       <c r="AI47" s="16"/>
-      <c r="AJ47" s="278" t="s">
+      <c r="AJ47" s="247" t="s">
         <v>17</v>
       </c>
       <c r="AK47" t="s">
@@ -14296,7 +14296,7 @@
         <v>1</v>
       </c>
       <c r="BQ47" s="37"/>
-      <c r="BR47" s="290" t="s">
+      <c r="BR47" s="246" t="s">
         <v>14</v>
       </c>
       <c r="BS47" s="14" t="s">
@@ -14428,8 +14428,8 @@
       <c r="CY47" s="16"/>
     </row>
     <row r="48" spans="1:103" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="288"/>
-      <c r="B48" s="278"/>
+      <c r="A48" s="256"/>
+      <c r="B48" s="247"/>
       <c r="C48" t="s">
         <v>21</v>
       </c>
@@ -14527,7 +14527,7 @@
         <v>1</v>
       </c>
       <c r="AI48" s="22"/>
-      <c r="AJ48" s="278"/>
+      <c r="AJ48" s="247"/>
       <c r="AK48" t="s">
         <v>22</v>
       </c>
@@ -14655,7 +14655,7 @@
         <v>1</v>
       </c>
       <c r="BQ48" s="37"/>
-      <c r="BR48" s="278"/>
+      <c r="BR48" s="247"/>
       <c r="BS48" t="s">
         <v>23</v>
       </c>
@@ -14785,8 +14785,8 @@
       <c r="CY48" s="22"/>
     </row>
     <row r="49" spans="1:103" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="288"/>
-      <c r="B49" s="278"/>
+      <c r="A49" s="256"/>
+      <c r="B49" s="247"/>
       <c r="C49" t="s">
         <v>24</v>
       </c>
@@ -14884,7 +14884,7 @@
         <v>1</v>
       </c>
       <c r="AI49" s="22"/>
-      <c r="AJ49" s="278"/>
+      <c r="AJ49" s="247"/>
       <c r="AK49" t="s">
         <v>25</v>
       </c>
@@ -15012,7 +15012,7 @@
         <v>1</v>
       </c>
       <c r="BQ49" s="24"/>
-      <c r="BR49" s="278"/>
+      <c r="BR49" s="247"/>
       <c r="BS49" t="s">
         <v>26</v>
       </c>
@@ -15142,8 +15142,8 @@
       <c r="CY49" s="22"/>
     </row>
     <row r="50" spans="1:103" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="288"/>
-      <c r="B50" s="278"/>
+      <c r="A50" s="256"/>
+      <c r="B50" s="247"/>
       <c r="C50" t="s">
         <v>27</v>
       </c>
@@ -15241,7 +15241,7 @@
         <v>1</v>
       </c>
       <c r="AI50" s="22"/>
-      <c r="AJ50" s="278"/>
+      <c r="AJ50" s="247"/>
       <c r="AK50" t="s">
         <v>28</v>
       </c>
@@ -15369,7 +15369,7 @@
         <v>1</v>
       </c>
       <c r="BQ50" s="24"/>
-      <c r="BR50" s="278"/>
+      <c r="BR50" s="247"/>
       <c r="BS50" t="s">
         <v>29</v>
       </c>
@@ -15499,8 +15499,8 @@
       <c r="CY50" s="22"/>
     </row>
     <row r="51" spans="1:103" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="288"/>
-      <c r="B51" s="278"/>
+      <c r="A51" s="256"/>
+      <c r="B51" s="247"/>
       <c r="C51" t="s">
         <v>30</v>
       </c>
@@ -15598,7 +15598,7 @@
         <v>1</v>
       </c>
       <c r="AI51" s="22"/>
-      <c r="AJ51" s="278"/>
+      <c r="AJ51" s="247"/>
       <c r="AK51" t="s">
         <v>31</v>
       </c>
@@ -15726,7 +15726,7 @@
         <v>1</v>
       </c>
       <c r="BQ51" s="24"/>
-      <c r="BR51" s="278"/>
+      <c r="BR51" s="247"/>
       <c r="BS51" t="s">
         <v>32</v>
       </c>
@@ -15856,8 +15856,8 @@
       <c r="CY51" s="22"/>
     </row>
     <row r="52" spans="1:103" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="288"/>
-      <c r="B52" s="278"/>
+      <c r="A52" s="256"/>
+      <c r="B52" s="247"/>
       <c r="C52" t="s">
         <v>33</v>
       </c>
@@ -15955,7 +15955,7 @@
         <v>1</v>
       </c>
       <c r="AI52" s="22"/>
-      <c r="AJ52" s="278"/>
+      <c r="AJ52" s="247"/>
       <c r="AK52" t="s">
         <v>34</v>
       </c>
@@ -16083,7 +16083,7 @@
         <v>1</v>
       </c>
       <c r="BQ52" s="24"/>
-      <c r="BR52" s="278"/>
+      <c r="BR52" s="247"/>
       <c r="BS52" t="s">
         <v>35</v>
       </c>
@@ -16213,8 +16213,8 @@
       <c r="CY52" s="22"/>
     </row>
     <row r="53" spans="1:103" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="288"/>
-      <c r="B53" s="278"/>
+      <c r="A53" s="256"/>
+      <c r="B53" s="247"/>
       <c r="C53" t="s">
         <v>36</v>
       </c>
@@ -16312,7 +16312,7 @@
         <v>1</v>
       </c>
       <c r="AI53" s="22"/>
-      <c r="AJ53" s="278"/>
+      <c r="AJ53" s="247"/>
       <c r="AK53" t="s">
         <v>37</v>
       </c>
@@ -16440,7 +16440,7 @@
         <v>1</v>
       </c>
       <c r="BQ53" s="24"/>
-      <c r="BR53" s="278"/>
+      <c r="BR53" s="247"/>
       <c r="BS53" t="s">
         <v>38</v>
       </c>
@@ -16570,8 +16570,8 @@
       <c r="CY53" s="22"/>
     </row>
     <row r="54" spans="1:103" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="288"/>
-      <c r="B54" s="278"/>
+      <c r="A54" s="256"/>
+      <c r="B54" s="247"/>
       <c r="C54" t="s">
         <v>39</v>
       </c>
@@ -16669,7 +16669,7 @@
         <v>1</v>
       </c>
       <c r="AI54" s="22"/>
-      <c r="AJ54" s="278"/>
+      <c r="AJ54" s="247"/>
       <c r="AK54" t="s">
         <v>40</v>
       </c>
@@ -16797,7 +16797,7 @@
         <v>1</v>
       </c>
       <c r="BQ54" s="24"/>
-      <c r="BR54" s="280"/>
+      <c r="BR54" s="248"/>
       <c r="BS54" s="26" t="s">
         <v>41</v>
       </c>
@@ -16927,8 +16927,8 @@
       <c r="CY54" s="28"/>
     </row>
     <row r="55" spans="1:103" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="288"/>
-      <c r="B55" s="278"/>
+      <c r="A55" s="256"/>
+      <c r="B55" s="247"/>
       <c r="C55" t="s">
         <v>42</v>
       </c>
@@ -17026,7 +17026,7 @@
         <v>1</v>
       </c>
       <c r="AI55" s="22"/>
-      <c r="AJ55" s="280"/>
+      <c r="AJ55" s="248"/>
       <c r="AK55" s="26" t="s">
         <v>43</v>
       </c>
@@ -17154,7 +17154,7 @@
         <v>1</v>
       </c>
       <c r="BQ55" s="24"/>
-      <c r="BR55" s="282" t="s">
+      <c r="BR55" s="251" t="s">
         <v>44</v>
       </c>
       <c r="BS55" s="29" t="s">
@@ -17286,8 +17286,8 @@
       <c r="CY55" s="22"/>
     </row>
     <row r="56" spans="1:103" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="288"/>
-      <c r="B56" s="278"/>
+      <c r="A56" s="256"/>
+      <c r="B56" s="247"/>
       <c r="C56" t="s">
         <v>46</v>
       </c>
@@ -17515,7 +17515,7 @@
         <v>1</v>
       </c>
       <c r="BQ56" s="35"/>
-      <c r="BR56" s="283"/>
+      <c r="BR56" s="258"/>
       <c r="BS56" s="36" t="s">
         <v>50</v>
       </c>
@@ -17645,8 +17645,8 @@
       <c r="CY56" s="22"/>
     </row>
     <row r="57" spans="1:103" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="288"/>
-      <c r="B57" s="285" t="s">
+      <c r="A57" s="256"/>
+      <c r="B57" s="260" t="s">
         <v>44</v>
       </c>
       <c r="C57" s="64" t="s">
@@ -17876,7 +17876,7 @@
         <v>1</v>
       </c>
       <c r="BQ57" s="35"/>
-      <c r="BR57" s="284"/>
+      <c r="BR57" s="259"/>
       <c r="BS57" s="39" t="s">
         <v>52</v>
       </c>
@@ -18006,8 +18006,8 @@
       <c r="CY57" s="22"/>
     </row>
     <row r="58" spans="1:103" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="288"/>
-      <c r="B58" s="286"/>
+      <c r="A58" s="256"/>
+      <c r="B58" s="261"/>
       <c r="C58" s="66" t="s">
         <v>52</v>
       </c>
@@ -18136,7 +18136,7 @@
       <c r="BO58" s="23"/>
       <c r="BP58" s="23"/>
       <c r="BQ58" s="24"/>
-      <c r="BR58" s="282" t="s">
+      <c r="BR58" s="251" t="s">
         <v>53</v>
       </c>
       <c r="BS58" s="64" t="s">
@@ -18268,8 +18268,8 @@
       <c r="CY58" s="31"/>
     </row>
     <row r="59" spans="1:103" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="288"/>
-      <c r="B59" s="281" t="s">
+      <c r="A59" s="256"/>
+      <c r="B59" s="262" t="s">
         <v>53</v>
       </c>
       <c r="C59" t="s">
@@ -18400,7 +18400,7 @@
       <c r="BO59" s="23"/>
       <c r="BP59" s="23"/>
       <c r="BQ59" s="24"/>
-      <c r="BR59" s="283"/>
+      <c r="BR59" s="258"/>
       <c r="BS59" s="68" t="s">
         <v>55</v>
       </c>
@@ -18530,8 +18530,8 @@
       <c r="CY59" s="22"/>
     </row>
     <row r="60" spans="1:103" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="288"/>
-      <c r="B60" s="286"/>
+      <c r="A60" s="256"/>
+      <c r="B60" s="261"/>
       <c r="C60" s="26" t="s">
         <v>55</v>
       </c>
@@ -18660,7 +18660,7 @@
       <c r="BO60" s="23"/>
       <c r="BP60" s="23"/>
       <c r="BQ60" s="24"/>
-      <c r="BR60" s="283"/>
+      <c r="BR60" s="258"/>
       <c r="BS60" s="68" t="s">
         <v>56</v>
       </c>
@@ -18790,8 +18790,8 @@
       <c r="CY60" s="22"/>
     </row>
     <row r="61" spans="1:103" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="288"/>
-      <c r="B61" s="277" t="s">
+      <c r="A61" s="256"/>
+      <c r="B61" s="254" t="s">
         <v>57</v>
       </c>
       <c r="C61" s="29" t="s">
@@ -18922,7 +18922,7 @@
       <c r="BO61" s="23"/>
       <c r="BP61" s="23"/>
       <c r="BQ61" s="24"/>
-      <c r="BR61" s="283"/>
+      <c r="BR61" s="258"/>
       <c r="BS61" s="68" t="s">
         <v>58</v>
       </c>
@@ -19052,8 +19052,8 @@
       <c r="CY61" s="22"/>
     </row>
     <row r="62" spans="1:103" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="288"/>
-      <c r="B62" s="278"/>
+      <c r="A62" s="256"/>
+      <c r="B62" s="247"/>
       <c r="C62" s="44" t="s">
         <v>59</v>
       </c>
@@ -19182,7 +19182,7 @@
       <c r="BO62" s="23"/>
       <c r="BP62" s="23"/>
       <c r="BQ62" s="24"/>
-      <c r="BR62" s="283"/>
+      <c r="BR62" s="258"/>
       <c r="BS62" s="68" t="s">
         <v>61</v>
       </c>
@@ -19312,8 +19312,8 @@
       <c r="CY62" s="22"/>
     </row>
     <row r="63" spans="1:103" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="288"/>
-      <c r="B63" s="280"/>
+      <c r="A63" s="256"/>
+      <c r="B63" s="248"/>
       <c r="C63" s="45" t="s">
         <v>62</v>
       </c>
@@ -19442,7 +19442,7 @@
       <c r="BO63" s="23"/>
       <c r="BP63" s="23"/>
       <c r="BQ63" s="24"/>
-      <c r="BR63" s="283"/>
+      <c r="BR63" s="258"/>
       <c r="BS63" s="68" t="s">
         <v>64</v>
       </c>
@@ -19572,8 +19572,8 @@
       <c r="CY63" s="22"/>
     </row>
     <row r="64" spans="1:103" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="288"/>
-      <c r="B64" s="277" t="s">
+      <c r="A64" s="256"/>
+      <c r="B64" s="254" t="s">
         <v>65</v>
       </c>
       <c r="C64" s="29" t="s">
@@ -19704,7 +19704,7 @@
       <c r="BO64" s="23"/>
       <c r="BP64" s="23"/>
       <c r="BQ64" s="24"/>
-      <c r="BR64" s="283"/>
+      <c r="BR64" s="258"/>
       <c r="BS64" s="68" t="s">
         <v>66</v>
       </c>
@@ -19834,8 +19834,8 @@
       <c r="CY64" s="22"/>
     </row>
     <row r="65" spans="1:103" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="288"/>
-      <c r="B65" s="278"/>
+      <c r="A65" s="256"/>
+      <c r="B65" s="247"/>
       <c r="C65" s="44" t="s">
         <v>59</v>
       </c>
@@ -19964,7 +19964,7 @@
       <c r="BO65" s="23"/>
       <c r="BP65" s="23"/>
       <c r="BQ65" s="24"/>
-      <c r="BR65" s="284"/>
+      <c r="BR65" s="259"/>
       <c r="BS65" s="66" t="s">
         <v>67</v>
       </c>
@@ -20094,8 +20094,8 @@
       <c r="CY65" s="28"/>
     </row>
     <row r="66" spans="1:103" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="288"/>
-      <c r="B66" s="278"/>
+      <c r="A66" s="256"/>
+      <c r="B66" s="247"/>
       <c r="C66" s="44" t="s">
         <v>62</v>
       </c>
@@ -20224,7 +20224,7 @@
       <c r="BO66" s="21"/>
       <c r="BP66" s="21"/>
       <c r="BQ66" s="36"/>
-      <c r="BR66" s="278" t="s">
+      <c r="BR66" s="247" t="s">
         <v>68</v>
       </c>
       <c r="BS66" t="s">
@@ -20356,8 +20356,8 @@
       <c r="CY66" s="22"/>
     </row>
     <row r="67" spans="1:103" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="288"/>
-      <c r="B67" s="278"/>
+      <c r="A67" s="256"/>
+      <c r="B67" s="247"/>
       <c r="C67" s="44" t="s">
         <v>69</v>
       </c>
@@ -20488,7 +20488,7 @@
       <c r="BO67" s="23"/>
       <c r="BP67" s="23"/>
       <c r="BQ67" s="37"/>
-      <c r="BR67" s="278"/>
+      <c r="BR67" s="247"/>
       <c r="BS67" s="51" t="s">
         <v>70</v>
       </c>
@@ -20618,8 +20618,8 @@
       <c r="CY67" s="22"/>
     </row>
     <row r="68" spans="1:103" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="288"/>
-      <c r="B68" s="278"/>
+      <c r="A68" s="256"/>
+      <c r="B68" s="247"/>
       <c r="C68" s="44" t="s">
         <v>71</v>
       </c>
@@ -20749,7 +20749,7 @@
       <c r="BO68" s="21"/>
       <c r="BP68" s="21"/>
       <c r="BQ68" s="36"/>
-      <c r="BR68" s="278"/>
+      <c r="BR68" s="247"/>
       <c r="BS68" s="51" t="s">
         <v>72</v>
       </c>
@@ -20879,8 +20879,8 @@
       <c r="CY68" s="22"/>
     </row>
     <row r="69" spans="1:103" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="288"/>
-      <c r="B69" s="278"/>
+      <c r="A69" s="256"/>
+      <c r="B69" s="247"/>
       <c r="C69" s="44" t="s">
         <v>73</v>
       </c>
@@ -21011,7 +21011,7 @@
       <c r="BO69" s="23"/>
       <c r="BP69" s="23"/>
       <c r="BQ69" s="37"/>
-      <c r="BR69" s="278"/>
+      <c r="BR69" s="247"/>
       <c r="BS69" s="52" t="s">
         <v>74</v>
       </c>
@@ -21141,8 +21141,8 @@
       <c r="CY69" s="22"/>
     </row>
     <row r="70" spans="1:103" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="288"/>
-      <c r="B70" s="278"/>
+      <c r="A70" s="256"/>
+      <c r="B70" s="247"/>
       <c r="C70" s="44" t="s">
         <v>75</v>
       </c>
@@ -21273,7 +21273,7 @@
       <c r="BO70" s="23"/>
       <c r="BP70" s="23"/>
       <c r="BQ70" s="37"/>
-      <c r="BR70" s="278"/>
+      <c r="BR70" s="247"/>
       <c r="BS70" s="52" t="s">
         <v>76</v>
       </c>
@@ -21403,8 +21403,8 @@
       <c r="CY70" s="22"/>
     </row>
     <row r="71" spans="1:103" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="288"/>
-      <c r="B71" s="278"/>
+      <c r="A71" s="256"/>
+      <c r="B71" s="247"/>
       <c r="C71" s="44" t="s">
         <v>76</v>
       </c>
@@ -21535,11 +21535,11 @@
       <c r="BO71" s="23"/>
       <c r="BP71" s="23"/>
       <c r="BQ71" s="37"/>
-      <c r="BR71" s="277" t="s">
-        <v>77</v>
+      <c r="BR71" s="254" t="s">
+        <v>289</v>
       </c>
       <c r="BS71" s="42" t="s">
-        <v>78</v>
+        <v>291</v>
       </c>
       <c r="BT71" s="38" t="s">
         <v>16</v>
@@ -21667,8 +21667,8 @@
       <c r="CY71" s="31"/>
     </row>
     <row r="72" spans="1:103" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="288"/>
-      <c r="B72" s="278"/>
+      <c r="A72" s="256"/>
+      <c r="B72" s="247"/>
       <c r="C72" s="44" t="s">
         <v>79</v>
       </c>
@@ -21798,7 +21798,7 @@
       <c r="BO72" s="21"/>
       <c r="BP72" s="21"/>
       <c r="BQ72" s="36"/>
-      <c r="BR72" s="278"/>
+      <c r="BR72" s="247"/>
       <c r="BS72" s="51" t="s">
         <v>70</v>
       </c>
@@ -21928,8 +21928,8 @@
       <c r="CY72" s="22"/>
     </row>
     <row r="73" spans="1:103" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="288"/>
-      <c r="B73" s="278"/>
+      <c r="A73" s="256"/>
+      <c r="B73" s="247"/>
       <c r="C73" s="44" t="s">
         <v>80</v>
       </c>
@@ -22059,7 +22059,7 @@
       <c r="BO73" s="21"/>
       <c r="BP73" s="21"/>
       <c r="BQ73" s="36"/>
-      <c r="BR73" s="280"/>
+      <c r="BR73" s="248"/>
       <c r="BS73" s="53" t="s">
         <v>72</v>
       </c>
@@ -22189,8 +22189,8 @@
       <c r="CY73" s="28"/>
     </row>
     <row r="74" spans="1:103" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="288"/>
-      <c r="B74" s="280"/>
+      <c r="A74" s="256"/>
+      <c r="B74" s="248"/>
       <c r="C74" s="45" t="s">
         <v>81</v>
       </c>
@@ -22320,42 +22320,140 @@
       <c r="BO74" s="21"/>
       <c r="BP74" s="21"/>
       <c r="BQ74" s="36"/>
-      <c r="BR74" s="54"/>
-      <c r="BU74" s="46"/>
-      <c r="BV74" s="46"/>
-      <c r="BW74" s="46"/>
-      <c r="BX74" s="46"/>
-      <c r="BY74" s="46"/>
-      <c r="BZ74" s="46"/>
-      <c r="CA74" s="47"/>
-      <c r="CB74" s="47"/>
-      <c r="CC74" s="47"/>
-      <c r="CD74" s="47"/>
-      <c r="CE74" s="47"/>
-      <c r="CF74" s="47"/>
-      <c r="CG74" s="144"/>
-      <c r="CH74" s="144"/>
-      <c r="CI74" s="144"/>
-      <c r="CJ74" s="144"/>
-      <c r="CK74" s="144"/>
-      <c r="CL74" s="144"/>
-      <c r="CM74" s="48"/>
-      <c r="CN74" s="48"/>
-      <c r="CO74" s="48"/>
-      <c r="CP74" s="48"/>
-      <c r="CQ74" s="48"/>
-      <c r="CR74" s="48"/>
-      <c r="CS74" s="21"/>
-      <c r="CT74" s="21"/>
-      <c r="CU74" s="21"/>
-      <c r="CV74" s="21"/>
-      <c r="CW74" s="21"/>
-      <c r="CX74" s="21"/>
+      <c r="BR74" s="254" t="s">
+        <v>290</v>
+      </c>
+      <c r="BS74" s="42" t="s">
+        <v>292</v>
+      </c>
+      <c r="BT74" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="BU74" s="169">
+        <f t="shared" ref="BU74:CX74" si="42">BU31</f>
+        <v>1</v>
+      </c>
+      <c r="BV74" s="169">
+        <f t="shared" si="42"/>
+        <v>1</v>
+      </c>
+      <c r="BW74" s="169">
+        <f t="shared" si="42"/>
+        <v>1</v>
+      </c>
+      <c r="BX74" s="169">
+        <f t="shared" si="42"/>
+        <v>1</v>
+      </c>
+      <c r="BY74" s="169">
+        <f t="shared" si="42"/>
+        <v>1</v>
+      </c>
+      <c r="BZ74" s="169">
+        <f t="shared" si="42"/>
+        <v>1</v>
+      </c>
+      <c r="CA74" s="170">
+        <f t="shared" si="42"/>
+        <v>1</v>
+      </c>
+      <c r="CB74" s="170">
+        <f t="shared" si="42"/>
+        <v>1</v>
+      </c>
+      <c r="CC74" s="170">
+        <f t="shared" si="42"/>
+        <v>1</v>
+      </c>
+      <c r="CD74" s="170">
+        <f t="shared" si="42"/>
+        <v>1</v>
+      </c>
+      <c r="CE74" s="170">
+        <f t="shared" si="42"/>
+        <v>1</v>
+      </c>
+      <c r="CF74" s="170">
+        <f t="shared" si="42"/>
+        <v>1</v>
+      </c>
+      <c r="CG74" s="158">
+        <f t="shared" si="42"/>
+        <v>1</v>
+      </c>
+      <c r="CH74" s="158">
+        <f t="shared" si="42"/>
+        <v>1</v>
+      </c>
+      <c r="CI74" s="158">
+        <f t="shared" si="42"/>
+        <v>1</v>
+      </c>
+      <c r="CJ74" s="158">
+        <f t="shared" si="42"/>
+        <v>1</v>
+      </c>
+      <c r="CK74" s="158">
+        <f t="shared" si="42"/>
+        <v>1</v>
+      </c>
+      <c r="CL74" s="158">
+        <f t="shared" si="42"/>
+        <v>1</v>
+      </c>
+      <c r="CM74" s="171">
+        <f t="shared" si="42"/>
+        <v>1</v>
+      </c>
+      <c r="CN74" s="171">
+        <f t="shared" si="42"/>
+        <v>1</v>
+      </c>
+      <c r="CO74" s="171">
+        <f t="shared" si="42"/>
+        <v>1</v>
+      </c>
+      <c r="CP74" s="171">
+        <f t="shared" si="42"/>
+        <v>1</v>
+      </c>
+      <c r="CQ74" s="171">
+        <f t="shared" si="42"/>
+        <v>1</v>
+      </c>
+      <c r="CR74" s="171">
+        <f t="shared" si="42"/>
+        <v>1</v>
+      </c>
+      <c r="CS74" s="172">
+        <f t="shared" si="42"/>
+        <v>1</v>
+      </c>
+      <c r="CT74" s="172">
+        <f t="shared" si="42"/>
+        <v>1</v>
+      </c>
+      <c r="CU74" s="172">
+        <f t="shared" si="42"/>
+        <v>1</v>
+      </c>
+      <c r="CV74" s="172">
+        <f t="shared" si="42"/>
+        <v>1</v>
+      </c>
+      <c r="CW74" s="172">
+        <f t="shared" si="42"/>
+        <v>1</v>
+      </c>
+      <c r="CX74" s="172">
+        <f t="shared" si="42"/>
+        <v>1</v>
+      </c>
       <c r="CY74" s="22"/>
     </row>
     <row r="75" spans="1:103" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="288"/>
-      <c r="B75" s="277" t="s">
+      <c r="A75" s="256"/>
+      <c r="B75" s="254" t="s">
         <v>82</v>
       </c>
       <c r="C75" t="s">
@@ -22487,42 +22585,138 @@
       <c r="BO75" s="21"/>
       <c r="BP75" s="21"/>
       <c r="BQ75" s="36"/>
-      <c r="BR75" s="41"/>
-      <c r="BU75" s="46"/>
-      <c r="BV75" s="46"/>
-      <c r="BW75" s="46"/>
-      <c r="BX75" s="46"/>
-      <c r="BY75" s="46"/>
-      <c r="BZ75" s="46"/>
-      <c r="CA75" s="47"/>
-      <c r="CB75" s="47"/>
-      <c r="CC75" s="47"/>
-      <c r="CD75" s="47"/>
-      <c r="CE75" s="47"/>
-      <c r="CF75" s="47"/>
-      <c r="CG75" s="144"/>
-      <c r="CH75" s="144"/>
-      <c r="CI75" s="144"/>
-      <c r="CJ75" s="144"/>
-      <c r="CK75" s="144"/>
-      <c r="CL75" s="144"/>
-      <c r="CM75" s="48"/>
-      <c r="CN75" s="48"/>
-      <c r="CO75" s="48"/>
-      <c r="CP75" s="48"/>
-      <c r="CQ75" s="48"/>
-      <c r="CR75" s="48"/>
-      <c r="CS75" s="21"/>
-      <c r="CT75" s="21"/>
-      <c r="CU75" s="21"/>
-      <c r="CV75" s="21"/>
-      <c r="CW75" s="21"/>
-      <c r="CX75" s="21"/>
+      <c r="BR75" s="247"/>
+      <c r="BS75" s="51" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT75" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="BU75" s="161">
+        <f t="shared" ref="BU75:CX75" si="43">BU32</f>
+        <v>1</v>
+      </c>
+      <c r="BV75" s="161">
+        <f t="shared" si="43"/>
+        <v>1</v>
+      </c>
+      <c r="BW75" s="161">
+        <f t="shared" si="43"/>
+        <v>1</v>
+      </c>
+      <c r="BX75" s="161">
+        <f t="shared" si="43"/>
+        <v>1</v>
+      </c>
+      <c r="BY75" s="161">
+        <f t="shared" si="43"/>
+        <v>1</v>
+      </c>
+      <c r="BZ75" s="161">
+        <f t="shared" si="43"/>
+        <v>1</v>
+      </c>
+      <c r="CA75" s="162">
+        <f t="shared" si="43"/>
+        <v>1</v>
+      </c>
+      <c r="CB75" s="162">
+        <f t="shared" si="43"/>
+        <v>1</v>
+      </c>
+      <c r="CC75" s="162">
+        <f t="shared" si="43"/>
+        <v>1</v>
+      </c>
+      <c r="CD75" s="162">
+        <f t="shared" si="43"/>
+        <v>1</v>
+      </c>
+      <c r="CE75" s="162">
+        <f t="shared" si="43"/>
+        <v>1</v>
+      </c>
+      <c r="CF75" s="162">
+        <f t="shared" si="43"/>
+        <v>1</v>
+      </c>
+      <c r="CG75" s="156">
+        <f t="shared" si="43"/>
+        <v>1</v>
+      </c>
+      <c r="CH75" s="156">
+        <f t="shared" si="43"/>
+        <v>1</v>
+      </c>
+      <c r="CI75" s="156">
+        <f t="shared" si="43"/>
+        <v>1</v>
+      </c>
+      <c r="CJ75" s="156">
+        <f t="shared" si="43"/>
+        <v>1</v>
+      </c>
+      <c r="CK75" s="156">
+        <f t="shared" si="43"/>
+        <v>1</v>
+      </c>
+      <c r="CL75" s="156">
+        <f t="shared" si="43"/>
+        <v>1</v>
+      </c>
+      <c r="CM75" s="163">
+        <f t="shared" si="43"/>
+        <v>1</v>
+      </c>
+      <c r="CN75" s="163">
+        <f t="shared" si="43"/>
+        <v>1</v>
+      </c>
+      <c r="CO75" s="163">
+        <f t="shared" si="43"/>
+        <v>1</v>
+      </c>
+      <c r="CP75" s="163">
+        <f t="shared" si="43"/>
+        <v>1</v>
+      </c>
+      <c r="CQ75" s="163">
+        <f t="shared" si="43"/>
+        <v>1</v>
+      </c>
+      <c r="CR75" s="163">
+        <f t="shared" si="43"/>
+        <v>1</v>
+      </c>
+      <c r="CS75" s="164">
+        <f t="shared" si="43"/>
+        <v>1</v>
+      </c>
+      <c r="CT75" s="164">
+        <f t="shared" si="43"/>
+        <v>1</v>
+      </c>
+      <c r="CU75" s="164">
+        <f t="shared" si="43"/>
+        <v>1</v>
+      </c>
+      <c r="CV75" s="164">
+        <f t="shared" si="43"/>
+        <v>1</v>
+      </c>
+      <c r="CW75" s="164">
+        <f t="shared" si="43"/>
+        <v>1</v>
+      </c>
+      <c r="CX75" s="164">
+        <f t="shared" si="43"/>
+        <v>1</v>
+      </c>
       <c r="CY75" s="22"/>
     </row>
     <row r="76" spans="1:103" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="288"/>
-      <c r="B76" s="278"/>
+      <c r="A76" s="256"/>
+      <c r="B76" s="247"/>
       <c r="C76" s="51" t="s">
         <v>59</v>
       </c>
@@ -22652,42 +22846,138 @@
       <c r="BO76" s="21"/>
       <c r="BP76" s="21"/>
       <c r="BQ76" s="36"/>
-      <c r="BR76" s="41"/>
-      <c r="BU76" s="46"/>
-      <c r="BV76" s="46"/>
-      <c r="BW76" s="46"/>
-      <c r="BX76" s="46"/>
-      <c r="BY76" s="46"/>
-      <c r="BZ76" s="46"/>
-      <c r="CA76" s="47"/>
-      <c r="CB76" s="47"/>
-      <c r="CC76" s="47"/>
-      <c r="CD76" s="47"/>
-      <c r="CE76" s="47"/>
-      <c r="CF76" s="47"/>
-      <c r="CG76" s="144"/>
-      <c r="CH76" s="144"/>
-      <c r="CI76" s="144"/>
-      <c r="CJ76" s="144"/>
-      <c r="CK76" s="144"/>
-      <c r="CL76" s="144"/>
-      <c r="CM76" s="48"/>
-      <c r="CN76" s="48"/>
-      <c r="CO76" s="48"/>
-      <c r="CP76" s="48"/>
-      <c r="CQ76" s="48"/>
-      <c r="CR76" s="48"/>
-      <c r="CS76" s="21"/>
-      <c r="CT76" s="21"/>
-      <c r="CU76" s="21"/>
-      <c r="CV76" s="21"/>
-      <c r="CW76" s="21"/>
-      <c r="CX76" s="21"/>
+      <c r="BR76" s="248"/>
+      <c r="BS76" s="53" t="s">
+        <v>72</v>
+      </c>
+      <c r="BT76" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="BU76" s="165">
+        <f t="shared" ref="BU76:CX76" si="44">BU33</f>
+        <v>1</v>
+      </c>
+      <c r="BV76" s="165">
+        <f t="shared" si="44"/>
+        <v>1</v>
+      </c>
+      <c r="BW76" s="165">
+        <f t="shared" si="44"/>
+        <v>1</v>
+      </c>
+      <c r="BX76" s="165">
+        <f t="shared" si="44"/>
+        <v>1</v>
+      </c>
+      <c r="BY76" s="165">
+        <f t="shared" si="44"/>
+        <v>1</v>
+      </c>
+      <c r="BZ76" s="165">
+        <f t="shared" si="44"/>
+        <v>1</v>
+      </c>
+      <c r="CA76" s="166">
+        <f t="shared" si="44"/>
+        <v>1</v>
+      </c>
+      <c r="CB76" s="166">
+        <f t="shared" si="44"/>
+        <v>1</v>
+      </c>
+      <c r="CC76" s="166">
+        <f t="shared" si="44"/>
+        <v>1</v>
+      </c>
+      <c r="CD76" s="166">
+        <f t="shared" si="44"/>
+        <v>1</v>
+      </c>
+      <c r="CE76" s="166">
+        <f t="shared" si="44"/>
+        <v>1</v>
+      </c>
+      <c r="CF76" s="166">
+        <f t="shared" si="44"/>
+        <v>1</v>
+      </c>
+      <c r="CG76" s="157">
+        <f t="shared" si="44"/>
+        <v>1</v>
+      </c>
+      <c r="CH76" s="157">
+        <f t="shared" si="44"/>
+        <v>1</v>
+      </c>
+      <c r="CI76" s="157">
+        <f t="shared" si="44"/>
+        <v>1</v>
+      </c>
+      <c r="CJ76" s="157">
+        <f t="shared" si="44"/>
+        <v>1</v>
+      </c>
+      <c r="CK76" s="157">
+        <f t="shared" si="44"/>
+        <v>1</v>
+      </c>
+      <c r="CL76" s="157">
+        <f t="shared" si="44"/>
+        <v>1</v>
+      </c>
+      <c r="CM76" s="167">
+        <f t="shared" si="44"/>
+        <v>1</v>
+      </c>
+      <c r="CN76" s="167">
+        <f t="shared" si="44"/>
+        <v>1</v>
+      </c>
+      <c r="CO76" s="167">
+        <f t="shared" si="44"/>
+        <v>1</v>
+      </c>
+      <c r="CP76" s="167">
+        <f t="shared" si="44"/>
+        <v>1</v>
+      </c>
+      <c r="CQ76" s="167">
+        <f t="shared" si="44"/>
+        <v>1</v>
+      </c>
+      <c r="CR76" s="167">
+        <f t="shared" si="44"/>
+        <v>1</v>
+      </c>
+      <c r="CS76" s="168">
+        <f t="shared" si="44"/>
+        <v>1</v>
+      </c>
+      <c r="CT76" s="168">
+        <f t="shared" si="44"/>
+        <v>1</v>
+      </c>
+      <c r="CU76" s="168">
+        <f t="shared" si="44"/>
+        <v>1</v>
+      </c>
+      <c r="CV76" s="168">
+        <f t="shared" si="44"/>
+        <v>1</v>
+      </c>
+      <c r="CW76" s="168">
+        <f t="shared" si="44"/>
+        <v>1</v>
+      </c>
+      <c r="CX76" s="168">
+        <f t="shared" si="44"/>
+        <v>1</v>
+      </c>
       <c r="CY76" s="22"/>
     </row>
     <row r="77" spans="1:103" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="288"/>
-      <c r="B77" s="278"/>
+      <c r="A77" s="256"/>
+      <c r="B77" s="247"/>
       <c r="C77" s="51" t="s">
         <v>62</v>
       </c>
@@ -22851,8 +23141,8 @@
       <c r="CY77" s="22"/>
     </row>
     <row r="78" spans="1:103" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="288"/>
-      <c r="B78" s="278"/>
+      <c r="A78" s="256"/>
+      <c r="B78" s="247"/>
       <c r="C78" s="51" t="s">
         <v>69</v>
       </c>
@@ -23016,8 +23306,8 @@
       <c r="CY78" s="22"/>
     </row>
     <row r="79" spans="1:103" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="288"/>
-      <c r="B79" s="278"/>
+      <c r="A79" s="256"/>
+      <c r="B79" s="247"/>
       <c r="C79" s="51" t="s">
         <v>84</v>
       </c>
@@ -23181,8 +23471,8 @@
       <c r="CY79" s="22"/>
     </row>
     <row r="80" spans="1:103" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="288"/>
-      <c r="B80" s="278"/>
+      <c r="A80" s="256"/>
+      <c r="B80" s="247"/>
       <c r="C80" s="51" t="s">
         <v>73</v>
       </c>
@@ -23346,8 +23636,8 @@
       <c r="CY80" s="22"/>
     </row>
     <row r="81" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="288"/>
-      <c r="B81" s="278"/>
+      <c r="A81" s="256"/>
+      <c r="B81" s="247"/>
       <c r="C81" s="51" t="s">
         <v>75</v>
       </c>
@@ -23511,8 +23801,8 @@
       <c r="CY81" s="22"/>
     </row>
     <row r="82" spans="1:103" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="288"/>
-      <c r="B82" s="278"/>
+      <c r="A82" s="256"/>
+      <c r="B82" s="247"/>
       <c r="C82" s="51" t="s">
         <v>76</v>
       </c>
@@ -23676,8 +23966,8 @@
       <c r="CY82" s="22"/>
     </row>
     <row r="83" spans="1:103" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A83" s="288"/>
-      <c r="B83" s="278"/>
+      <c r="A83" s="256"/>
+      <c r="B83" s="247"/>
       <c r="C83" s="51" t="s">
         <v>79</v>
       </c>
@@ -23842,8 +24132,8 @@
       <c r="CY83" s="22"/>
     </row>
     <row r="84" spans="1:103" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="288"/>
-      <c r="B84" s="278"/>
+      <c r="A84" s="256"/>
+      <c r="B84" s="247"/>
       <c r="C84" s="51" t="s">
         <v>80</v>
       </c>
@@ -24008,8 +24298,8 @@
       <c r="CY84" s="22"/>
     </row>
     <row r="85" spans="1:103" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="288"/>
-      <c r="B85" s="278"/>
+      <c r="A85" s="256"/>
+      <c r="B85" s="247"/>
       <c r="C85" s="51" t="s">
         <v>81</v>
       </c>
@@ -24174,8 +24464,8 @@
       <c r="CY85" s="22"/>
     </row>
     <row r="86" spans="1:103" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A86" s="288"/>
-      <c r="B86" s="278"/>
+      <c r="A86" s="256"/>
+      <c r="B86" s="247"/>
       <c r="C86" s="51" t="s">
         <v>85</v>
       </c>
@@ -24340,8 +24630,8 @@
       <c r="CY86" s="22"/>
     </row>
     <row r="87" spans="1:103" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A87" s="288"/>
-      <c r="B87" s="278"/>
+      <c r="A87" s="256"/>
+      <c r="B87" s="247"/>
       <c r="C87" s="51" t="s">
         <v>86</v>
       </c>
@@ -24506,8 +24796,8 @@
       <c r="CY87" s="22"/>
     </row>
     <row r="88" spans="1:103" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A88" s="288"/>
-      <c r="B88" s="278"/>
+      <c r="A88" s="256"/>
+      <c r="B88" s="247"/>
       <c r="C88" s="51" t="s">
         <v>87</v>
       </c>
@@ -24671,8 +24961,8 @@
       <c r="CY88" s="22"/>
     </row>
     <row r="89" spans="1:103" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A89" s="289"/>
-      <c r="B89" s="279"/>
+      <c r="A89" s="257"/>
+      <c r="B89" s="269"/>
       <c r="C89" s="55" t="s">
         <v>88</v>
       </c>
@@ -25978,37 +26268,7 @@
       <c r="CT112" s="50"/>
     </row>
   </sheetData>
-  <mergeCells count="46">
-    <mergeCell ref="A4:A46"/>
-    <mergeCell ref="B4:B13"/>
-    <mergeCell ref="AJ4:AJ12"/>
-    <mergeCell ref="BR4:BR11"/>
-    <mergeCell ref="BR12:BR14"/>
-    <mergeCell ref="BR31:BR33"/>
-    <mergeCell ref="A47:A89"/>
-    <mergeCell ref="B47:B56"/>
-    <mergeCell ref="AJ47:AJ55"/>
-    <mergeCell ref="BR47:BR54"/>
-    <mergeCell ref="BR55:BR57"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="BR58:BR65"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="B64:B74"/>
-    <mergeCell ref="BR66:BR70"/>
-    <mergeCell ref="BR71:BR73"/>
-    <mergeCell ref="Q2:V2"/>
-    <mergeCell ref="AY2:BD2"/>
-    <mergeCell ref="CG2:CL2"/>
-    <mergeCell ref="B75:B89"/>
-    <mergeCell ref="BR23:BR27"/>
-    <mergeCell ref="BR28:BR30"/>
-    <mergeCell ref="B32:B46"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="BR15:BR22"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="B21:B31"/>
+  <mergeCells count="47">
     <mergeCell ref="CS2:CX2"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="B1:AI1"/>
@@ -26025,6 +26285,37 @@
     <mergeCell ref="BU2:BZ2"/>
     <mergeCell ref="CA2:CF2"/>
     <mergeCell ref="CM2:CR2"/>
+    <mergeCell ref="Q2:V2"/>
+    <mergeCell ref="AY2:BD2"/>
+    <mergeCell ref="CG2:CL2"/>
+    <mergeCell ref="B75:B89"/>
+    <mergeCell ref="BR23:BR27"/>
+    <mergeCell ref="BR28:BR30"/>
+    <mergeCell ref="B32:B46"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="BR15:BR22"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="B21:B31"/>
+    <mergeCell ref="A47:A89"/>
+    <mergeCell ref="B47:B56"/>
+    <mergeCell ref="AJ47:AJ55"/>
+    <mergeCell ref="BR47:BR54"/>
+    <mergeCell ref="BR55:BR57"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="BR58:BR65"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="B64:B74"/>
+    <mergeCell ref="BR66:BR70"/>
+    <mergeCell ref="BR71:BR73"/>
+    <mergeCell ref="BR74:BR76"/>
+    <mergeCell ref="A4:A46"/>
+    <mergeCell ref="B4:B13"/>
+    <mergeCell ref="AJ4:AJ12"/>
+    <mergeCell ref="BR4:BR11"/>
+    <mergeCell ref="BR12:BR14"/>
+    <mergeCell ref="BR31:BR33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -26055,7 +26346,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:95" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="246"/>
+      <c r="A1" s="273"/>
       <c r="B1"/>
       <c r="F1" s="302" t="s">
         <v>127</v>
@@ -26159,7 +26450,7 @@
       <c r="CQ1" s="301"/>
     </row>
     <row r="2" spans="1:95" x14ac:dyDescent="0.35">
-      <c r="A2" s="247"/>
+      <c r="A2" s="274"/>
       <c r="B2" s="2"/>
       <c r="C2" s="3"/>
       <c r="D2" s="76"/>
@@ -26436,7 +26727,7 @@
       </c>
     </row>
     <row r="3" spans="1:95" ht="17.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="248"/>
+      <c r="A3" s="275"/>
       <c r="B3" s="9" t="s">
         <v>3</v>
       </c>
@@ -26717,10 +27008,10 @@
       </c>
     </row>
     <row r="4" spans="1:95" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="291" t="s">
+      <c r="A4" s="243" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="290" t="s">
+      <c r="B4" s="246" t="s">
         <v>14</v>
       </c>
       <c r="C4" s="14" t="s">
@@ -27024,8 +27315,8 @@
       </c>
     </row>
     <row r="5" spans="1:95" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="292"/>
-      <c r="B5" s="278"/>
+      <c r="A5" s="244"/>
+      <c r="B5" s="247"/>
       <c r="C5" t="s">
         <v>21</v>
       </c>
@@ -27329,8 +27620,8 @@
       </c>
     </row>
     <row r="6" spans="1:95" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="292"/>
-      <c r="B6" s="278"/>
+      <c r="A6" s="244"/>
+      <c r="B6" s="247"/>
       <c r="C6" t="s">
         <v>24</v>
       </c>
@@ -27632,8 +27923,8 @@
       </c>
     </row>
     <row r="7" spans="1:95" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="292"/>
-      <c r="B7" s="278"/>
+      <c r="A7" s="244"/>
+      <c r="B7" s="247"/>
       <c r="C7" t="s">
         <v>27</v>
       </c>
@@ -27937,8 +28228,8 @@
       </c>
     </row>
     <row r="8" spans="1:95" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="292"/>
-      <c r="B8" s="278"/>
+      <c r="A8" s="244"/>
+      <c r="B8" s="247"/>
       <c r="C8" t="s">
         <v>30</v>
       </c>
@@ -28242,8 +28533,8 @@
       </c>
     </row>
     <row r="9" spans="1:95" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="292"/>
-      <c r="B9" s="278"/>
+      <c r="A9" s="244"/>
+      <c r="B9" s="247"/>
       <c r="C9" t="s">
         <v>33</v>
       </c>
@@ -28545,8 +28836,8 @@
       </c>
     </row>
     <row r="10" spans="1:95" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="292"/>
-      <c r="B10" s="278"/>
+      <c r="A10" s="244"/>
+      <c r="B10" s="247"/>
       <c r="C10" t="s">
         <v>36</v>
       </c>
@@ -28848,8 +29139,8 @@
       </c>
     </row>
     <row r="11" spans="1:95" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="292"/>
-      <c r="B11" s="278"/>
+      <c r="A11" s="244"/>
+      <c r="B11" s="247"/>
       <c r="C11" t="s">
         <v>39</v>
       </c>
@@ -29153,8 +29444,8 @@
       </c>
     </row>
     <row r="12" spans="1:95" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="292"/>
-      <c r="B12" s="278"/>
+      <c r="A12" s="244"/>
+      <c r="B12" s="247"/>
       <c r="C12" t="s">
         <v>42</v>
       </c>
@@ -29458,8 +29749,8 @@
       </c>
     </row>
     <row r="13" spans="1:95" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="292"/>
-      <c r="B13" s="280"/>
+      <c r="A13" s="244"/>
+      <c r="B13" s="248"/>
       <c r="C13" t="s">
         <v>46</v>
       </c>
@@ -29763,8 +30054,8 @@
       </c>
     </row>
     <row r="14" spans="1:95" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="292"/>
-      <c r="B14" s="281" t="s">
+      <c r="A14" s="244"/>
+      <c r="B14" s="262" t="s">
         <v>44</v>
       </c>
       <c r="C14" s="29" t="s">
@@ -30068,8 +30359,8 @@
       </c>
     </row>
     <row r="15" spans="1:95" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="292"/>
-      <c r="B15" s="281"/>
+      <c r="A15" s="244"/>
+      <c r="B15" s="262"/>
       <c r="C15" s="39" t="s">
         <v>52</v>
       </c>
@@ -30371,8 +30662,8 @@
       </c>
     </row>
     <row r="16" spans="1:95" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="292"/>
-      <c r="B16" s="285" t="s">
+      <c r="A16" s="244"/>
+      <c r="B16" s="260" t="s">
         <v>53</v>
       </c>
       <c r="C16" s="42" t="s">
@@ -30676,8 +30967,8 @@
       </c>
     </row>
     <row r="17" spans="1:95" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="292"/>
-      <c r="B17" s="286"/>
+      <c r="A17" s="244"/>
+      <c r="B17" s="261"/>
       <c r="C17" s="26" t="s">
         <v>55</v>
       </c>
@@ -30979,8 +31270,8 @@
       </c>
     </row>
     <row r="18" spans="1:95" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="292"/>
-      <c r="B18" s="277" t="s">
+      <c r="A18" s="244"/>
+      <c r="B18" s="254" t="s">
         <v>57</v>
       </c>
       <c r="C18" s="29" t="s">
@@ -31084,8 +31375,8 @@
       <c r="CQ18" s="116"/>
     </row>
     <row r="19" spans="1:95" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="292"/>
-      <c r="B19" s="278"/>
+      <c r="A19" s="244"/>
+      <c r="B19" s="247"/>
       <c r="C19" s="44" t="s">
         <v>59</v>
       </c>
@@ -31365,8 +31656,8 @@
       </c>
     </row>
     <row r="20" spans="1:95" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="292"/>
-      <c r="B20" s="280"/>
+      <c r="A20" s="244"/>
+      <c r="B20" s="248"/>
       <c r="C20" s="45" t="s">
         <v>62</v>
       </c>
@@ -31669,8 +31960,8 @@
       </c>
     </row>
     <row r="21" spans="1:95" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="292"/>
-      <c r="B21" s="277" t="s">
+      <c r="A21" s="244"/>
+      <c r="B21" s="254" t="s">
         <v>65</v>
       </c>
       <c r="C21" s="29" t="s">
@@ -31774,8 +32065,8 @@
       <c r="CQ21" s="116"/>
     </row>
     <row r="22" spans="1:95" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="292"/>
-      <c r="B22" s="278"/>
+      <c r="A22" s="244"/>
+      <c r="B22" s="247"/>
       <c r="C22" s="44" t="s">
         <v>59</v>
       </c>
@@ -32148,8 +32439,8 @@
       </c>
     </row>
     <row r="23" spans="1:95" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="292"/>
-      <c r="B23" s="278"/>
+      <c r="A23" s="244"/>
+      <c r="B23" s="247"/>
       <c r="C23" s="44" t="s">
         <v>62</v>
       </c>
@@ -32522,8 +32813,8 @@
       </c>
     </row>
     <row r="24" spans="1:95" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A24" s="292"/>
-      <c r="B24" s="278"/>
+      <c r="A24" s="244"/>
+      <c r="B24" s="247"/>
       <c r="C24" s="44" t="s">
         <v>69</v>
       </c>
@@ -32805,8 +33096,8 @@
       </c>
     </row>
     <row r="25" spans="1:95" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A25" s="292"/>
-      <c r="B25" s="278"/>
+      <c r="A25" s="244"/>
+      <c r="B25" s="247"/>
       <c r="C25" s="44" t="s">
         <v>71</v>
       </c>
@@ -33088,8 +33379,8 @@
       </c>
     </row>
     <row r="26" spans="1:95" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A26" s="292"/>
-      <c r="B26" s="278"/>
+      <c r="A26" s="244"/>
+      <c r="B26" s="247"/>
       <c r="C26" s="44" t="s">
         <v>73</v>
       </c>
@@ -33462,8 +33753,8 @@
       </c>
     </row>
     <row r="27" spans="1:95" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A27" s="292"/>
-      <c r="B27" s="278"/>
+      <c r="A27" s="244"/>
+      <c r="B27" s="247"/>
       <c r="C27" s="201" t="s">
         <v>75</v>
       </c>
@@ -33563,8 +33854,8 @@
       <c r="CQ27" s="116"/>
     </row>
     <row r="28" spans="1:95" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A28" s="292"/>
-      <c r="B28" s="278"/>
+      <c r="A28" s="244"/>
+      <c r="B28" s="247"/>
       <c r="C28" s="44" t="s">
         <v>76</v>
       </c>
@@ -33844,8 +34135,8 @@
       </c>
     </row>
     <row r="29" spans="1:95" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A29" s="292"/>
-      <c r="B29" s="278"/>
+      <c r="A29" s="244"/>
+      <c r="B29" s="247"/>
       <c r="C29" s="44" t="s">
         <v>79</v>
       </c>
@@ -34127,8 +34418,8 @@
       </c>
     </row>
     <row r="30" spans="1:95" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A30" s="292"/>
-      <c r="B30" s="278"/>
+      <c r="A30" s="244"/>
+      <c r="B30" s="247"/>
       <c r="C30" s="44" t="s">
         <v>80</v>
       </c>
@@ -34410,8 +34701,8 @@
       </c>
     </row>
     <row r="31" spans="1:95" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A31" s="292"/>
-      <c r="B31" s="280"/>
+      <c r="A31" s="244"/>
+      <c r="B31" s="248"/>
       <c r="C31" s="45" t="s">
         <v>81</v>
       </c>
@@ -34693,8 +34984,8 @@
       </c>
     </row>
     <row r="32" spans="1:95" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A32" s="292"/>
-      <c r="B32" s="277" t="s">
+      <c r="A32" s="244"/>
+      <c r="B32" s="254" t="s">
         <v>82</v>
       </c>
       <c r="C32" t="s">
@@ -34798,8 +35089,8 @@
       <c r="CQ32" s="116"/>
     </row>
     <row r="33" spans="1:95" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A33" s="292"/>
-      <c r="B33" s="278"/>
+      <c r="A33" s="244"/>
+      <c r="B33" s="247"/>
       <c r="C33" s="51" t="s">
         <v>59</v>
       </c>
@@ -35172,8 +35463,8 @@
       </c>
     </row>
     <row r="34" spans="1:95" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A34" s="292"/>
-      <c r="B34" s="278"/>
+      <c r="A34" s="244"/>
+      <c r="B34" s="247"/>
       <c r="C34" s="51" t="s">
         <v>62</v>
       </c>
@@ -35546,8 +35837,8 @@
       </c>
     </row>
     <row r="35" spans="1:95" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A35" s="292"/>
-      <c r="B35" s="278"/>
+      <c r="A35" s="244"/>
+      <c r="B35" s="247"/>
       <c r="C35" s="51" t="s">
         <v>69</v>
       </c>
@@ -35920,8 +36211,8 @@
       </c>
     </row>
     <row r="36" spans="1:95" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A36" s="292"/>
-      <c r="B36" s="278"/>
+      <c r="A36" s="244"/>
+      <c r="B36" s="247"/>
       <c r="C36" s="51" t="s">
         <v>71</v>
       </c>
@@ -36294,8 +36585,8 @@
       </c>
     </row>
     <row r="37" spans="1:95" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A37" s="292"/>
-      <c r="B37" s="278"/>
+      <c r="A37" s="244"/>
+      <c r="B37" s="247"/>
       <c r="C37" s="51" t="s">
         <v>73</v>
       </c>
@@ -36668,8 +36959,8 @@
       </c>
     </row>
     <row r="38" spans="1:95" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A38" s="292"/>
-      <c r="B38" s="278"/>
+      <c r="A38" s="244"/>
+      <c r="B38" s="247"/>
       <c r="C38" s="51" t="s">
         <v>75</v>
       </c>
@@ -37042,8 +37333,8 @@
       </c>
     </row>
     <row r="39" spans="1:95" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A39" s="292"/>
-      <c r="B39" s="278"/>
+      <c r="A39" s="244"/>
+      <c r="B39" s="247"/>
       <c r="C39" s="51" t="s">
         <v>76</v>
       </c>
@@ -37416,8 +37707,8 @@
       </c>
     </row>
     <row r="40" spans="1:95" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A40" s="292"/>
-      <c r="B40" s="278"/>
+      <c r="A40" s="244"/>
+      <c r="B40" s="247"/>
       <c r="C40" s="51" t="s">
         <v>79</v>
       </c>
@@ -37790,8 +38081,8 @@
       </c>
     </row>
     <row r="41" spans="1:95" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A41" s="292"/>
-      <c r="B41" s="278"/>
+      <c r="A41" s="244"/>
+      <c r="B41" s="247"/>
       <c r="C41" s="51" t="s">
         <v>80</v>
       </c>
@@ -38164,8 +38455,8 @@
       </c>
     </row>
     <row r="42" spans="1:95" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A42" s="292"/>
-      <c r="B42" s="278"/>
+      <c r="A42" s="244"/>
+      <c r="B42" s="247"/>
       <c r="C42" s="51" t="s">
         <v>81</v>
       </c>
@@ -38538,8 +38829,8 @@
       </c>
     </row>
     <row r="43" spans="1:95" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A43" s="292"/>
-      <c r="B43" s="278"/>
+      <c r="A43" s="244"/>
+      <c r="B43" s="247"/>
       <c r="C43" s="51" t="s">
         <v>85</v>
       </c>
@@ -38821,8 +39112,8 @@
       </c>
     </row>
     <row r="44" spans="1:95" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A44" s="292"/>
-      <c r="B44" s="278"/>
+      <c r="A44" s="244"/>
+      <c r="B44" s="247"/>
       <c r="C44" s="51" t="s">
         <v>86</v>
       </c>
@@ -39104,8 +39395,8 @@
       </c>
     </row>
     <row r="45" spans="1:95" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A45" s="292"/>
-      <c r="B45" s="278"/>
+      <c r="A45" s="244"/>
+      <c r="B45" s="247"/>
       <c r="C45" s="51" t="s">
         <v>87</v>
       </c>
@@ -39387,8 +39678,8 @@
       </c>
     </row>
     <row r="46" spans="1:95" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="293"/>
-      <c r="B46" s="279"/>
+      <c r="A46" s="245"/>
+      <c r="B46" s="269"/>
       <c r="C46" s="55" t="s">
         <v>88</v>
       </c>
@@ -39821,13 +40112,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="H1:AC1"/>
-    <mergeCell ref="AD1:AY1"/>
-    <mergeCell ref="AZ1:BU1"/>
-    <mergeCell ref="BV1:CQ1"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="F1:G1"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="A4:A46"/>
     <mergeCell ref="B4:B13"/>
@@ -39836,6 +40120,13 @@
     <mergeCell ref="B18:B20"/>
     <mergeCell ref="B21:B31"/>
     <mergeCell ref="B32:B46"/>
+    <mergeCell ref="H1:AC1"/>
+    <mergeCell ref="AD1:AY1"/>
+    <mergeCell ref="AZ1:BU1"/>
+    <mergeCell ref="BV1:CQ1"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="F1:G1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -40518,7 +40809,7 @@
       </c>
     </row>
     <row r="4" spans="1:94" x14ac:dyDescent="0.35">
-      <c r="A4" s="290" t="s">
+      <c r="A4" s="246" t="s">
         <v>14</v>
       </c>
       <c r="B4" s="14" t="s">
@@ -40822,7 +41113,7 @@
       </c>
     </row>
     <row r="5" spans="1:94" x14ac:dyDescent="0.35">
-      <c r="A5" s="278"/>
+      <c r="A5" s="247"/>
       <c r="B5" s="88" t="s">
         <v>23</v>
       </c>
@@ -40834,7 +41125,7 @@
       <c r="F5" s="188"/>
     </row>
     <row r="6" spans="1:94" x14ac:dyDescent="0.35">
-      <c r="A6" s="278"/>
+      <c r="A6" s="247"/>
       <c r="B6" t="s">
         <v>26</v>
       </c>
@@ -41136,7 +41427,7 @@
       </c>
     </row>
     <row r="7" spans="1:94" x14ac:dyDescent="0.35">
-      <c r="A7" s="278"/>
+      <c r="A7" s="247"/>
       <c r="B7" t="s">
         <v>29</v>
       </c>
@@ -41438,7 +41729,7 @@
       </c>
     </row>
     <row r="8" spans="1:94" x14ac:dyDescent="0.35">
-      <c r="A8" s="278"/>
+      <c r="A8" s="247"/>
       <c r="B8" t="s">
         <v>32</v>
       </c>
@@ -41740,7 +42031,7 @@
       </c>
     </row>
     <row r="9" spans="1:94" x14ac:dyDescent="0.35">
-      <c r="A9" s="278"/>
+      <c r="A9" s="247"/>
       <c r="B9" t="s">
         <v>35</v>
       </c>
@@ -42042,7 +42333,7 @@
       </c>
     </row>
     <row r="10" spans="1:94" x14ac:dyDescent="0.35">
-      <c r="A10" s="278"/>
+      <c r="A10" s="247"/>
       <c r="B10" s="88" t="s">
         <v>38</v>
       </c>
@@ -42054,7 +42345,7 @@
       <c r="F10" s="188"/>
     </row>
     <row r="11" spans="1:94" x14ac:dyDescent="0.35">
-      <c r="A11" s="280"/>
+      <c r="A11" s="248"/>
       <c r="B11" s="26" t="s">
         <v>41</v>
       </c>
@@ -42356,7 +42647,7 @@
       </c>
     </row>
     <row r="12" spans="1:94" x14ac:dyDescent="0.35">
-      <c r="A12" s="282" t="s">
+      <c r="A12" s="251" t="s">
         <v>44</v>
       </c>
       <c r="B12" s="29" t="s">
@@ -42660,7 +42951,7 @@
       </c>
     </row>
     <row r="13" spans="1:94" x14ac:dyDescent="0.35">
-      <c r="A13" s="283"/>
+      <c r="A13" s="258"/>
       <c r="B13" s="36" t="s">
         <v>50</v>
       </c>
@@ -42962,7 +43253,7 @@
       </c>
     </row>
     <row r="14" spans="1:94" x14ac:dyDescent="0.35">
-      <c r="A14" s="284"/>
+      <c r="A14" s="259"/>
       <c r="B14" s="39" t="s">
         <v>52</v>
       </c>
@@ -43264,7 +43555,7 @@
       </c>
     </row>
     <row r="15" spans="1:94" x14ac:dyDescent="0.35">
-      <c r="A15" s="282" t="s">
+      <c r="A15" s="251" t="s">
         <v>53</v>
       </c>
       <c r="B15" s="29" t="s">
@@ -43568,7 +43859,7 @@
       </c>
     </row>
     <row r="16" spans="1:94" x14ac:dyDescent="0.35">
-      <c r="A16" s="283"/>
+      <c r="A16" s="258"/>
       <c r="B16" s="36" t="s">
         <v>55</v>
       </c>
@@ -43870,7 +44161,7 @@
       </c>
     </row>
     <row r="17" spans="1:94" x14ac:dyDescent="0.35">
-      <c r="A17" s="283"/>
+      <c r="A17" s="258"/>
       <c r="B17" s="36" t="s">
         <v>56</v>
       </c>
@@ -44172,7 +44463,7 @@
       </c>
     </row>
     <row r="18" spans="1:94" x14ac:dyDescent="0.35">
-      <c r="A18" s="283"/>
+      <c r="A18" s="258"/>
       <c r="B18" s="36" t="s">
         <v>58</v>
       </c>
@@ -44186,7 +44477,7 @@
       <c r="F18" s="188"/>
     </row>
     <row r="19" spans="1:94" x14ac:dyDescent="0.35">
-      <c r="A19" s="283"/>
+      <c r="A19" s="258"/>
       <c r="B19" s="36" t="s">
         <v>61</v>
       </c>
@@ -44488,7 +44779,7 @@
       </c>
     </row>
     <row r="20" spans="1:94" x14ac:dyDescent="0.35">
-      <c r="A20" s="283"/>
+      <c r="A20" s="258"/>
       <c r="B20" s="36" t="s">
         <v>64</v>
       </c>
@@ -44588,7 +44879,7 @@
       <c r="CP20" s="116"/>
     </row>
     <row r="21" spans="1:94" x14ac:dyDescent="0.35">
-      <c r="A21" s="283"/>
+      <c r="A21" s="258"/>
       <c r="B21" s="36" t="s">
         <v>66</v>
       </c>
@@ -44690,7 +44981,7 @@
       <c r="CP21" s="116"/>
     </row>
     <row r="22" spans="1:94" x14ac:dyDescent="0.35">
-      <c r="A22" s="284"/>
+      <c r="A22" s="259"/>
       <c r="B22" s="39" t="s">
         <v>67</v>
       </c>
@@ -44792,7 +45083,7 @@
       <c r="CP22" s="116"/>
     </row>
     <row r="23" spans="1:94" x14ac:dyDescent="0.35">
-      <c r="A23" s="278" t="s">
+      <c r="A23" s="247" t="s">
         <v>68</v>
       </c>
       <c r="B23" t="s">
@@ -44896,7 +45187,7 @@
       <c r="CP23" s="116"/>
     </row>
     <row r="24" spans="1:94" x14ac:dyDescent="0.35">
-      <c r="A24" s="278"/>
+      <c r="A24" s="247"/>
       <c r="B24" s="51" t="s">
         <v>70</v>
       </c>
@@ -45178,7 +45469,7 @@
       </c>
     </row>
     <row r="25" spans="1:94" x14ac:dyDescent="0.35">
-      <c r="A25" s="278"/>
+      <c r="A25" s="247"/>
       <c r="B25" s="51" t="s">
         <v>72</v>
       </c>
@@ -45460,7 +45751,7 @@
       </c>
     </row>
     <row r="26" spans="1:94" x14ac:dyDescent="0.35">
-      <c r="A26" s="278"/>
+      <c r="A26" s="247"/>
       <c r="B26" s="52" t="s">
         <v>74</v>
       </c>
@@ -45742,7 +46033,7 @@
       </c>
     </row>
     <row r="27" spans="1:94" x14ac:dyDescent="0.35">
-      <c r="A27" s="278"/>
+      <c r="A27" s="247"/>
       <c r="B27" s="52" t="s">
         <v>76</v>
       </c>
@@ -46022,7 +46313,7 @@
       </c>
     </row>
     <row r="28" spans="1:94" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="277" t="s">
+      <c r="A28" s="254" t="s">
         <v>289</v>
       </c>
       <c r="B28" s="42" t="s">
@@ -46126,7 +46417,7 @@
       <c r="CP28" s="116"/>
     </row>
     <row r="29" spans="1:94" x14ac:dyDescent="0.35">
-      <c r="A29" s="278"/>
+      <c r="A29" s="247"/>
       <c r="B29" s="51" t="s">
         <v>70</v>
       </c>
@@ -46406,7 +46697,7 @@
       </c>
     </row>
     <row r="30" spans="1:94" x14ac:dyDescent="0.35">
-      <c r="A30" s="280"/>
+      <c r="A30" s="248"/>
       <c r="B30" s="53" t="s">
         <v>72</v>
       </c>
@@ -46688,7 +46979,7 @@
       </c>
     </row>
     <row r="31" spans="1:94" x14ac:dyDescent="0.35">
-      <c r="A31" s="277" t="s">
+      <c r="A31" s="254" t="s">
         <v>290</v>
       </c>
       <c r="B31" s="42" t="s">
@@ -46792,7 +47083,7 @@
       <c r="CP31" s="116"/>
     </row>
     <row r="32" spans="1:94" x14ac:dyDescent="0.35">
-      <c r="A32" s="278"/>
+      <c r="A32" s="247"/>
       <c r="B32" s="51" t="s">
         <v>70</v>
       </c>
@@ -47072,7 +47363,7 @@
       </c>
     </row>
     <row r="33" spans="1:94" x14ac:dyDescent="0.35">
-      <c r="A33" s="280"/>
+      <c r="A33" s="248"/>
       <c r="B33" s="53" t="s">
         <v>72</v>
       </c>
@@ -47400,7 +47691,7 @@
       <c r="C46" s="60"/>
     </row>
     <row r="47" spans="1:94" x14ac:dyDescent="0.35">
-      <c r="A47" s="290" t="s">
+      <c r="A47" s="246" t="s">
         <v>14</v>
       </c>
       <c r="B47" s="14" t="s">
@@ -47411,7 +47702,7 @@
       </c>
     </row>
     <row r="48" spans="1:94" x14ac:dyDescent="0.35">
-      <c r="A48" s="278"/>
+      <c r="A48" s="247"/>
       <c r="B48" t="s">
         <v>23</v>
       </c>
@@ -47420,7 +47711,7 @@
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A49" s="278"/>
+      <c r="A49" s="247"/>
       <c r="B49" t="s">
         <v>26</v>
       </c>
@@ -47429,7 +47720,7 @@
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A50" s="278"/>
+      <c r="A50" s="247"/>
       <c r="B50" t="s">
         <v>29</v>
       </c>
@@ -47438,7 +47729,7 @@
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A51" s="278"/>
+      <c r="A51" s="247"/>
       <c r="B51" t="s">
         <v>32</v>
       </c>
@@ -47447,7 +47738,7 @@
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A52" s="278"/>
+      <c r="A52" s="247"/>
       <c r="B52" t="s">
         <v>35</v>
       </c>
@@ -47456,7 +47747,7 @@
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A53" s="278"/>
+      <c r="A53" s="247"/>
       <c r="B53" t="s">
         <v>38</v>
       </c>
@@ -47465,7 +47756,7 @@
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A54" s="280"/>
+      <c r="A54" s="248"/>
       <c r="B54" s="26" t="s">
         <v>41</v>
       </c>
@@ -47474,7 +47765,7 @@
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A55" s="282" t="s">
+      <c r="A55" s="251" t="s">
         <v>44</v>
       </c>
       <c r="B55" s="29" t="s">
@@ -47485,7 +47776,7 @@
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A56" s="283"/>
+      <c r="A56" s="258"/>
       <c r="B56" s="36" t="s">
         <v>50</v>
       </c>
@@ -47494,7 +47785,7 @@
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A57" s="284"/>
+      <c r="A57" s="259"/>
       <c r="B57" s="39" t="s">
         <v>52</v>
       </c>
@@ -47503,7 +47794,7 @@
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A58" s="282" t="s">
+      <c r="A58" s="251" t="s">
         <v>53</v>
       </c>
       <c r="B58" s="64" t="s">
@@ -47514,7 +47805,7 @@
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A59" s="283"/>
+      <c r="A59" s="258"/>
       <c r="B59" s="68" t="s">
         <v>55</v>
       </c>
@@ -47523,7 +47814,7 @@
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A60" s="283"/>
+      <c r="A60" s="258"/>
       <c r="B60" s="68" t="s">
         <v>56</v>
       </c>
@@ -47532,7 +47823,7 @@
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A61" s="283"/>
+      <c r="A61" s="258"/>
       <c r="B61" s="68" t="s">
         <v>58</v>
       </c>
@@ -47541,7 +47832,7 @@
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A62" s="283"/>
+      <c r="A62" s="258"/>
       <c r="B62" s="68" t="s">
         <v>61</v>
       </c>
@@ -47550,7 +47841,7 @@
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A63" s="283"/>
+      <c r="A63" s="258"/>
       <c r="B63" s="68" t="s">
         <v>64</v>
       </c>
@@ -47559,7 +47850,7 @@
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A64" s="283"/>
+      <c r="A64" s="258"/>
       <c r="B64" s="68" t="s">
         <v>66</v>
       </c>
@@ -47568,7 +47859,7 @@
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A65" s="284"/>
+      <c r="A65" s="259"/>
       <c r="B65" s="66" t="s">
         <v>67</v>
       </c>
@@ -47577,7 +47868,7 @@
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A66" s="278" t="s">
+      <c r="A66" s="247" t="s">
         <v>68</v>
       </c>
       <c r="B66" t="s">
@@ -47588,7 +47879,7 @@
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A67" s="278"/>
+      <c r="A67" s="247"/>
       <c r="B67" s="51" t="s">
         <v>70</v>
       </c>
@@ -47597,7 +47888,7 @@
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A68" s="278"/>
+      <c r="A68" s="247"/>
       <c r="B68" s="51" t="s">
         <v>72</v>
       </c>
@@ -47606,7 +47897,7 @@
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A69" s="278"/>
+      <c r="A69" s="247"/>
       <c r="B69" s="52" t="s">
         <v>74</v>
       </c>
@@ -47615,7 +47906,7 @@
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A70" s="278"/>
+      <c r="A70" s="247"/>
       <c r="B70" s="52" t="s">
         <v>76</v>
       </c>
@@ -47624,7 +47915,7 @@
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A71" s="277" t="s">
+      <c r="A71" s="254" t="s">
         <v>77</v>
       </c>
       <c r="B71" s="42" t="s">
@@ -47635,7 +47926,7 @@
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A72" s="278"/>
+      <c r="A72" s="247"/>
       <c r="B72" s="51" t="s">
         <v>70</v>
       </c>
@@ -47644,7 +47935,7 @@
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A73" s="280"/>
+      <c r="A73" s="248"/>
       <c r="B73" s="53" t="s">
         <v>72</v>
       </c>
@@ -47760,13 +48051,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="AC1:AX1"/>
-    <mergeCell ref="AY1:BT1"/>
-    <mergeCell ref="BU1:CP1"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:AB1"/>
     <mergeCell ref="A71:A73"/>
     <mergeCell ref="A4:A11"/>
     <mergeCell ref="A12:A14"/>
@@ -47778,6 +48062,13 @@
     <mergeCell ref="A58:A65"/>
     <mergeCell ref="A66:A70"/>
     <mergeCell ref="A31:A33"/>
+    <mergeCell ref="AC1:AX1"/>
+    <mergeCell ref="AY1:BT1"/>
+    <mergeCell ref="BU1:CP1"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:AB1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -47805,7 +48096,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="246"/>
+      <c r="A1" s="273"/>
       <c r="B1"/>
       <c r="E1" s="306" t="s">
         <v>7</v>
@@ -47821,7 +48112,7 @@
       <c r="N1" s="306"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A2" s="247"/>
+      <c r="A2" s="274"/>
       <c r="B2" s="2"/>
       <c r="C2" s="3"/>
       <c r="D2" s="76"/>
@@ -47845,7 +48136,7 @@
       <c r="N2" s="85"/>
     </row>
     <row r="3" spans="1:14" ht="17.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="248"/>
+      <c r="A3" s="275"/>
       <c r="B3" s="9" t="s">
         <v>3</v>
       </c>
@@ -47883,10 +48174,10 @@
       </c>
     </row>
     <row r="4" spans="1:14" ht="58" x14ac:dyDescent="0.35">
-      <c r="A4" s="291" t="s">
+      <c r="A4" s="243" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="290" t="s">
+      <c r="B4" s="246" t="s">
         <v>14</v>
       </c>
       <c r="C4" s="14" t="s">
@@ -47919,8 +48210,8 @@
       </c>
     </row>
     <row r="5" spans="1:14" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="292"/>
-      <c r="B5" s="278"/>
+      <c r="A5" s="244"/>
+      <c r="B5" s="247"/>
       <c r="C5" t="s">
         <v>21</v>
       </c>
@@ -47940,8 +48231,8 @@
       <c r="N5" s="80"/>
     </row>
     <row r="6" spans="1:14" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="292"/>
-      <c r="B6" s="278"/>
+      <c r="A6" s="244"/>
+      <c r="B6" s="247"/>
       <c r="C6" t="s">
         <v>24</v>
       </c>
@@ -47961,8 +48252,8 @@
       <c r="N6" s="80"/>
     </row>
     <row r="7" spans="1:14" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="292"/>
-      <c r="B7" s="278"/>
+      <c r="A7" s="244"/>
+      <c r="B7" s="247"/>
       <c r="C7" t="s">
         <v>27</v>
       </c>
@@ -47990,8 +48281,8 @@
       </c>
     </row>
     <row r="8" spans="1:14" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="292"/>
-      <c r="B8" s="278"/>
+      <c r="A8" s="244"/>
+      <c r="B8" s="247"/>
       <c r="C8" t="s">
         <v>30</v>
       </c>
@@ -48019,8 +48310,8 @@
       </c>
     </row>
     <row r="9" spans="1:14" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="292"/>
-      <c r="B9" s="278"/>
+      <c r="A9" s="244"/>
+      <c r="B9" s="247"/>
       <c r="C9" t="s">
         <v>33</v>
       </c>
@@ -48048,8 +48339,8 @@
       </c>
     </row>
     <row r="10" spans="1:14" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="292"/>
-      <c r="B10" s="278"/>
+      <c r="A10" s="244"/>
+      <c r="B10" s="247"/>
       <c r="C10" t="s">
         <v>36</v>
       </c>
@@ -48069,8 +48360,8 @@
       <c r="N10" s="80"/>
     </row>
     <row r="11" spans="1:14" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="292"/>
-      <c r="B11" s="278"/>
+      <c r="A11" s="244"/>
+      <c r="B11" s="247"/>
       <c r="C11" t="s">
         <v>39</v>
       </c>
@@ -48090,8 +48381,8 @@
       <c r="N11" s="80"/>
     </row>
     <row r="12" spans="1:14" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="292"/>
-      <c r="B12" s="278"/>
+      <c r="A12" s="244"/>
+      <c r="B12" s="247"/>
       <c r="C12" t="s">
         <v>42</v>
       </c>
@@ -48117,8 +48408,8 @@
       </c>
     </row>
     <row r="13" spans="1:14" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="292"/>
-      <c r="B13" s="280"/>
+      <c r="A13" s="244"/>
+      <c r="B13" s="248"/>
       <c r="C13" t="s">
         <v>46</v>
       </c>
@@ -48144,8 +48435,8 @@
       </c>
     </row>
     <row r="14" spans="1:14" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="292"/>
-      <c r="B14" s="281" t="s">
+      <c r="A14" s="244"/>
+      <c r="B14" s="262" t="s">
         <v>44</v>
       </c>
       <c r="C14" s="29" t="s">
@@ -48167,8 +48458,8 @@
       <c r="N14" s="80"/>
     </row>
     <row r="15" spans="1:14" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="292"/>
-      <c r="B15" s="281"/>
+      <c r="A15" s="244"/>
+      <c r="B15" s="262"/>
       <c r="C15" s="39" t="s">
         <v>52</v>
       </c>
@@ -48188,8 +48479,8 @@
       <c r="N15" s="80"/>
     </row>
     <row r="16" spans="1:14" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="292"/>
-      <c r="B16" s="285" t="s">
+      <c r="A16" s="244"/>
+      <c r="B16" s="260" t="s">
         <v>53</v>
       </c>
       <c r="C16" s="42" t="s">
@@ -48211,8 +48502,8 @@
       <c r="N16" s="80"/>
     </row>
     <row r="17" spans="1:14" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="292"/>
-      <c r="B17" s="286"/>
+      <c r="A17" s="244"/>
+      <c r="B17" s="261"/>
       <c r="C17" s="26" t="s">
         <v>55</v>
       </c>
@@ -48238,8 +48529,8 @@
       </c>
     </row>
     <row r="18" spans="1:14" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="292"/>
-      <c r="B18" s="277" t="s">
+      <c r="A18" s="244"/>
+      <c r="B18" s="254" t="s">
         <v>57</v>
       </c>
       <c r="C18" s="29" t="s">
@@ -48258,8 +48549,8 @@
       <c r="N18" s="80"/>
     </row>
     <row r="19" spans="1:14" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="292"/>
-      <c r="B19" s="278"/>
+      <c r="A19" s="244"/>
+      <c r="B19" s="247"/>
       <c r="C19" s="44" t="s">
         <v>59</v>
       </c>
@@ -48276,8 +48567,8 @@
       <c r="N19" s="80"/>
     </row>
     <row r="20" spans="1:14" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="292"/>
-      <c r="B20" s="280"/>
+      <c r="A20" s="244"/>
+      <c r="B20" s="248"/>
       <c r="C20" s="45" t="s">
         <v>62</v>
       </c>
@@ -48294,8 +48585,8 @@
       <c r="N20" s="80"/>
     </row>
     <row r="21" spans="1:14" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="292"/>
-      <c r="B21" s="277" t="s">
+      <c r="A21" s="244"/>
+      <c r="B21" s="254" t="s">
         <v>65</v>
       </c>
       <c r="C21" s="29" t="s">
@@ -48314,8 +48605,8 @@
       <c r="N21" s="80"/>
     </row>
     <row r="22" spans="1:14" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="292"/>
-      <c r="B22" s="278"/>
+      <c r="A22" s="244"/>
+      <c r="B22" s="247"/>
       <c r="C22" s="44" t="s">
         <v>59</v>
       </c>
@@ -48332,8 +48623,8 @@
       <c r="N22" s="80"/>
     </row>
     <row r="23" spans="1:14" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="292"/>
-      <c r="B23" s="278"/>
+      <c r="A23" s="244"/>
+      <c r="B23" s="247"/>
       <c r="C23" s="44" t="s">
         <v>62</v>
       </c>
@@ -48350,8 +48641,8 @@
       <c r="N23" s="80"/>
     </row>
     <row r="24" spans="1:14" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A24" s="292"/>
-      <c r="B24" s="278"/>
+      <c r="A24" s="244"/>
+      <c r="B24" s="247"/>
       <c r="C24" s="44" t="s">
         <v>69</v>
       </c>
@@ -48368,8 +48659,8 @@
       <c r="N24" s="80"/>
     </row>
     <row r="25" spans="1:14" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A25" s="292"/>
-      <c r="B25" s="278"/>
+      <c r="A25" s="244"/>
+      <c r="B25" s="247"/>
       <c r="C25" s="44" t="s">
         <v>71</v>
       </c>
@@ -48386,8 +48677,8 @@
       <c r="N25" s="80"/>
     </row>
     <row r="26" spans="1:14" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A26" s="292"/>
-      <c r="B26" s="278"/>
+      <c r="A26" s="244"/>
+      <c r="B26" s="247"/>
       <c r="C26" s="44" t="s">
         <v>73</v>
       </c>
@@ -48404,8 +48695,8 @@
       <c r="N26" s="80"/>
     </row>
     <row r="27" spans="1:14" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A27" s="292"/>
-      <c r="B27" s="278"/>
+      <c r="A27" s="244"/>
+      <c r="B27" s="247"/>
       <c r="C27" s="44" t="s">
         <v>75</v>
       </c>
@@ -48422,8 +48713,8 @@
       <c r="N27" s="80"/>
     </row>
     <row r="28" spans="1:14" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A28" s="292"/>
-      <c r="B28" s="278"/>
+      <c r="A28" s="244"/>
+      <c r="B28" s="247"/>
       <c r="C28" s="44" t="s">
         <v>76</v>
       </c>
@@ -48440,8 +48731,8 @@
       <c r="N28" s="80"/>
     </row>
     <row r="29" spans="1:14" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A29" s="292"/>
-      <c r="B29" s="278"/>
+      <c r="A29" s="244"/>
+      <c r="B29" s="247"/>
       <c r="C29" s="44" t="s">
         <v>79</v>
       </c>
@@ -48458,8 +48749,8 @@
       <c r="N29" s="80"/>
     </row>
     <row r="30" spans="1:14" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A30" s="292"/>
-      <c r="B30" s="278"/>
+      <c r="A30" s="244"/>
+      <c r="B30" s="247"/>
       <c r="C30" s="44" t="s">
         <v>80</v>
       </c>
@@ -48476,8 +48767,8 @@
       <c r="N30" s="80"/>
     </row>
     <row r="31" spans="1:14" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A31" s="292"/>
-      <c r="B31" s="280"/>
+      <c r="A31" s="244"/>
+      <c r="B31" s="248"/>
       <c r="C31" s="45" t="s">
         <v>81</v>
       </c>
@@ -48494,8 +48785,8 @@
       <c r="N31" s="80"/>
     </row>
     <row r="32" spans="1:14" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A32" s="292"/>
-      <c r="B32" s="277" t="s">
+      <c r="A32" s="244"/>
+      <c r="B32" s="254" t="s">
         <v>82</v>
       </c>
       <c r="C32" t="s">
@@ -48514,8 +48805,8 @@
       <c r="N32" s="80"/>
     </row>
     <row r="33" spans="1:14" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A33" s="292"/>
-      <c r="B33" s="278"/>
+      <c r="A33" s="244"/>
+      <c r="B33" s="247"/>
       <c r="C33" s="51" t="s">
         <v>59</v>
       </c>
@@ -48532,8 +48823,8 @@
       <c r="N33" s="80"/>
     </row>
     <row r="34" spans="1:14" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A34" s="292"/>
-      <c r="B34" s="278"/>
+      <c r="A34" s="244"/>
+      <c r="B34" s="247"/>
       <c r="C34" s="51" t="s">
         <v>62</v>
       </c>
@@ -48550,8 +48841,8 @@
       <c r="N34" s="80"/>
     </row>
     <row r="35" spans="1:14" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A35" s="292"/>
-      <c r="B35" s="278"/>
+      <c r="A35" s="244"/>
+      <c r="B35" s="247"/>
       <c r="C35" s="51" t="s">
         <v>69</v>
       </c>
@@ -48568,8 +48859,8 @@
       <c r="N35" s="80"/>
     </row>
     <row r="36" spans="1:14" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A36" s="292"/>
-      <c r="B36" s="278"/>
+      <c r="A36" s="244"/>
+      <c r="B36" s="247"/>
       <c r="C36" s="51" t="s">
         <v>84</v>
       </c>
@@ -48586,8 +48877,8 @@
       <c r="N36" s="80"/>
     </row>
     <row r="37" spans="1:14" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A37" s="292"/>
-      <c r="B37" s="278"/>
+      <c r="A37" s="244"/>
+      <c r="B37" s="247"/>
       <c r="C37" s="51" t="s">
         <v>73</v>
       </c>
@@ -48604,8 +48895,8 @@
       <c r="N37" s="80"/>
     </row>
     <row r="38" spans="1:14" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A38" s="292"/>
-      <c r="B38" s="278"/>
+      <c r="A38" s="244"/>
+      <c r="B38" s="247"/>
       <c r="C38" s="51" t="s">
         <v>75</v>
       </c>
@@ -48622,8 +48913,8 @@
       <c r="N38" s="80"/>
     </row>
     <row r="39" spans="1:14" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A39" s="292"/>
-      <c r="B39" s="278"/>
+      <c r="A39" s="244"/>
+      <c r="B39" s="247"/>
       <c r="C39" s="51" t="s">
         <v>76</v>
       </c>
@@ -48640,8 +48931,8 @@
       <c r="N39" s="80"/>
     </row>
     <row r="40" spans="1:14" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A40" s="292"/>
-      <c r="B40" s="278"/>
+      <c r="A40" s="244"/>
+      <c r="B40" s="247"/>
       <c r="C40" s="51" t="s">
         <v>79</v>
       </c>
@@ -48658,8 +48949,8 @@
       <c r="N40" s="80"/>
     </row>
     <row r="41" spans="1:14" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A41" s="292"/>
-      <c r="B41" s="278"/>
+      <c r="A41" s="244"/>
+      <c r="B41" s="247"/>
       <c r="C41" s="51" t="s">
         <v>80</v>
       </c>
@@ -48676,8 +48967,8 @@
       <c r="N41" s="80"/>
     </row>
     <row r="42" spans="1:14" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A42" s="292"/>
-      <c r="B42" s="278"/>
+      <c r="A42" s="244"/>
+      <c r="B42" s="247"/>
       <c r="C42" s="51" t="s">
         <v>81</v>
       </c>
@@ -48694,8 +48985,8 @@
       <c r="N42" s="80"/>
     </row>
     <row r="43" spans="1:14" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A43" s="292"/>
-      <c r="B43" s="278"/>
+      <c r="A43" s="244"/>
+      <c r="B43" s="247"/>
       <c r="C43" s="51" t="s">
         <v>85</v>
       </c>
@@ -48712,8 +49003,8 @@
       <c r="N43" s="80"/>
     </row>
     <row r="44" spans="1:14" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A44" s="292"/>
-      <c r="B44" s="278"/>
+      <c r="A44" s="244"/>
+      <c r="B44" s="247"/>
       <c r="C44" s="51" t="s">
         <v>86</v>
       </c>
@@ -48730,8 +49021,8 @@
       <c r="N44" s="80"/>
     </row>
     <row r="45" spans="1:14" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A45" s="292"/>
-      <c r="B45" s="278"/>
+      <c r="A45" s="244"/>
+      <c r="B45" s="247"/>
       <c r="C45" s="51" t="s">
         <v>87</v>
       </c>
@@ -48748,8 +49039,8 @@
       <c r="N45" s="80"/>
     </row>
     <row r="46" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="293"/>
-      <c r="B46" s="279"/>
+      <c r="A46" s="245"/>
+      <c r="B46" s="269"/>
       <c r="C46" s="55" t="s">
         <v>88</v>
       </c>
@@ -49586,7 +49877,7 @@
       </c>
     </row>
     <row r="4" spans="1:94" x14ac:dyDescent="0.35">
-      <c r="A4" s="290" t="s">
+      <c r="A4" s="246" t="s">
         <v>17</v>
       </c>
       <c r="B4" s="14" t="s">
@@ -49892,7 +50183,7 @@
       </c>
     </row>
     <row r="5" spans="1:94" x14ac:dyDescent="0.35">
-      <c r="A5" s="278"/>
+      <c r="A5" s="247"/>
       <c r="B5" t="s">
         <v>22</v>
       </c>
@@ -50196,7 +50487,7 @@
       </c>
     </row>
     <row r="6" spans="1:94" x14ac:dyDescent="0.35">
-      <c r="A6" s="278"/>
+      <c r="A6" s="247"/>
       <c r="B6" t="s">
         <v>25</v>
       </c>
@@ -50500,7 +50791,7 @@
       </c>
     </row>
     <row r="7" spans="1:94" x14ac:dyDescent="0.35">
-      <c r="A7" s="278"/>
+      <c r="A7" s="247"/>
       <c r="B7" t="s">
         <v>28</v>
       </c>
@@ -50804,7 +51095,7 @@
       </c>
     </row>
     <row r="8" spans="1:94" x14ac:dyDescent="0.35">
-      <c r="A8" s="278"/>
+      <c r="A8" s="247"/>
       <c r="B8" t="s">
         <v>31</v>
       </c>
@@ -51108,7 +51399,7 @@
       </c>
     </row>
     <row r="9" spans="1:94" x14ac:dyDescent="0.35">
-      <c r="A9" s="278"/>
+      <c r="A9" s="247"/>
       <c r="B9" t="s">
         <v>34</v>
       </c>
@@ -51412,7 +51703,7 @@
       </c>
     </row>
     <row r="10" spans="1:94" x14ac:dyDescent="0.35">
-      <c r="A10" s="278"/>
+      <c r="A10" s="247"/>
       <c r="B10" t="s">
         <v>37</v>
       </c>
@@ -51716,7 +52007,7 @@
       </c>
     </row>
     <row r="11" spans="1:94" x14ac:dyDescent="0.35">
-      <c r="A11" s="278"/>
+      <c r="A11" s="247"/>
       <c r="B11" t="s">
         <v>40</v>
       </c>
@@ -52020,7 +52311,7 @@
       </c>
     </row>
     <row r="12" spans="1:94" x14ac:dyDescent="0.35">
-      <c r="A12" s="280"/>
+      <c r="A12" s="248"/>
       <c r="B12" s="26" t="s">
         <v>43</v>
       </c>
@@ -52531,7 +52822,7 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A4" s="290" t="s">
+      <c r="A4" s="246" t="s">
         <v>17</v>
       </c>
       <c r="B4" s="14" t="s">
@@ -52554,7 +52845,7 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A5" s="278"/>
+      <c r="A5" s="247"/>
       <c r="B5" t="s">
         <v>22</v>
       </c>
@@ -52575,7 +52866,7 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A6" s="278"/>
+      <c r="A6" s="247"/>
       <c r="B6" t="s">
         <v>25</v>
       </c>
@@ -52596,7 +52887,7 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A7" s="278"/>
+      <c r="A7" s="247"/>
       <c r="B7" t="s">
         <v>28</v>
       </c>
@@ -52617,7 +52908,7 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A8" s="278"/>
+      <c r="A8" s="247"/>
       <c r="B8" t="s">
         <v>31</v>
       </c>
@@ -52638,7 +52929,7 @@
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A9" s="278"/>
+      <c r="A9" s="247"/>
       <c r="B9" t="s">
         <v>34</v>
       </c>
@@ -52659,7 +52950,7 @@
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A10" s="278"/>
+      <c r="A10" s="247"/>
       <c r="B10" t="s">
         <v>37</v>
       </c>
@@ -52680,7 +52971,7 @@
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A11" s="278"/>
+      <c r="A11" s="247"/>
       <c r="B11" t="s">
         <v>40</v>
       </c>
@@ -52701,7 +52992,7 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A12" s="280"/>
+      <c r="A12" s="248"/>
       <c r="B12" s="26" t="s">
         <v>43</v>
       </c>
@@ -52879,7 +53170,7 @@
       <c r="C46" s="60"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A47" s="278" t="s">
+      <c r="A47" s="247" t="s">
         <v>17</v>
       </c>
       <c r="B47" t="s">
@@ -52890,7 +53181,7 @@
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A48" s="278"/>
+      <c r="A48" s="247"/>
       <c r="B48" t="s">
         <v>22</v>
       </c>
@@ -52899,7 +53190,7 @@
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A49" s="278"/>
+      <c r="A49" s="247"/>
       <c r="B49" t="s">
         <v>25</v>
       </c>
@@ -52908,7 +53199,7 @@
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A50" s="278"/>
+      <c r="A50" s="247"/>
       <c r="B50" t="s">
         <v>28</v>
       </c>
@@ -52917,7 +53208,7 @@
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A51" s="278"/>
+      <c r="A51" s="247"/>
       <c r="B51" t="s">
         <v>31</v>
       </c>
@@ -52926,7 +53217,7 @@
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A52" s="278"/>
+      <c r="A52" s="247"/>
       <c r="B52" t="s">
         <v>34</v>
       </c>
@@ -52935,7 +53226,7 @@
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A53" s="278"/>
+      <c r="A53" s="247"/>
       <c r="B53" t="s">
         <v>37</v>
       </c>
@@ -52944,7 +53235,7 @@
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A54" s="278"/>
+      <c r="A54" s="247"/>
       <c r="B54" t="s">
         <v>40</v>
       </c>
@@ -52953,7 +53244,7 @@
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A55" s="280"/>
+      <c r="A55" s="248"/>
       <c r="B55" s="26" t="s">
         <v>43</v>
       </c>
@@ -53159,7 +53450,7 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A4" s="290" t="s">
+      <c r="A4" s="246" t="s">
         <v>14</v>
       </c>
       <c r="B4" s="14" t="s">
@@ -53173,7 +53464,7 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A5" s="278"/>
+      <c r="A5" s="247"/>
       <c r="B5" s="88" t="s">
         <v>23</v>
       </c>
@@ -53182,7 +53473,7 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A6" s="278"/>
+      <c r="A6" s="247"/>
       <c r="B6" t="s">
         <v>26</v>
       </c>
@@ -53194,7 +53485,7 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A7" s="278"/>
+      <c r="A7" s="247"/>
       <c r="B7" t="s">
         <v>29</v>
       </c>
@@ -53206,7 +53497,7 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A8" s="278"/>
+      <c r="A8" s="247"/>
       <c r="B8" t="s">
         <v>32</v>
       </c>
@@ -53218,7 +53509,7 @@
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A9" s="278"/>
+      <c r="A9" s="247"/>
       <c r="B9" t="s">
         <v>35</v>
       </c>
@@ -53230,7 +53521,7 @@
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A10" s="278"/>
+      <c r="A10" s="247"/>
       <c r="B10" s="88" t="s">
         <v>38</v>
       </c>
@@ -53239,7 +53530,7 @@
       </c>
     </row>
     <row r="11" spans="1:13" ht="29" x14ac:dyDescent="0.35">
-      <c r="A11" s="280"/>
+      <c r="A11" s="248"/>
       <c r="B11" s="26" t="s">
         <v>41</v>
       </c>
@@ -53269,7 +53560,7 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A12" s="282" t="s">
+      <c r="A12" s="251" t="s">
         <v>44</v>
       </c>
       <c r="B12" s="29" t="s">
@@ -53280,7 +53571,7 @@
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A13" s="283"/>
+      <c r="A13" s="258"/>
       <c r="B13" s="36" t="s">
         <v>50</v>
       </c>
@@ -53289,7 +53580,7 @@
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A14" s="284"/>
+      <c r="A14" s="259"/>
       <c r="B14" s="39" t="s">
         <v>52</v>
       </c>
@@ -53298,7 +53589,7 @@
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A15" s="282" t="s">
+      <c r="A15" s="251" t="s">
         <v>53</v>
       </c>
       <c r="B15" s="29" t="s">
@@ -53309,7 +53600,7 @@
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A16" s="283"/>
+      <c r="A16" s="258"/>
       <c r="B16" s="36" t="s">
         <v>55</v>
       </c>
@@ -53318,7 +53609,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" s="283"/>
+      <c r="A17" s="258"/>
       <c r="B17" s="36" t="s">
         <v>56</v>
       </c>
@@ -53327,7 +53618,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" s="283"/>
+      <c r="A18" s="258"/>
       <c r="B18" s="36" t="s">
         <v>58</v>
       </c>
@@ -53336,7 +53627,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19" s="283"/>
+      <c r="A19" s="258"/>
       <c r="B19" s="36" t="s">
         <v>61</v>
       </c>
@@ -53345,7 +53636,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20" s="283"/>
+      <c r="A20" s="258"/>
       <c r="B20" s="36" t="s">
         <v>64</v>
       </c>
@@ -53354,7 +53645,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21" s="283"/>
+      <c r="A21" s="258"/>
       <c r="B21" s="36" t="s">
         <v>66</v>
       </c>
@@ -53363,7 +53654,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A22" s="284"/>
+      <c r="A22" s="259"/>
       <c r="B22" s="39" t="s">
         <v>67</v>
       </c>
@@ -53372,7 +53663,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A23" s="278" t="s">
+      <c r="A23" s="247" t="s">
         <v>68</v>
       </c>
       <c r="B23" t="s">
@@ -53383,7 +53674,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A24" s="278"/>
+      <c r="A24" s="247"/>
       <c r="B24" s="51" t="s">
         <v>70</v>
       </c>
@@ -53392,7 +53683,7 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A25" s="278"/>
+      <c r="A25" s="247"/>
       <c r="B25" s="51" t="s">
         <v>72</v>
       </c>
@@ -53401,7 +53692,7 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A26" s="278"/>
+      <c r="A26" s="247"/>
       <c r="B26" s="52" t="s">
         <v>74</v>
       </c>
@@ -53410,7 +53701,7 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A27" s="278"/>
+      <c r="A27" s="247"/>
       <c r="B27" s="52" t="s">
         <v>76</v>
       </c>
@@ -53419,7 +53710,7 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A28" s="277" t="s">
+      <c r="A28" s="254" t="s">
         <v>77</v>
       </c>
       <c r="B28" s="42" t="s">
@@ -53430,7 +53721,7 @@
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A29" s="278"/>
+      <c r="A29" s="247"/>
       <c r="B29" s="51" t="s">
         <v>70</v>
       </c>
@@ -53439,7 +53730,7 @@
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A30" s="280"/>
+      <c r="A30" s="248"/>
       <c r="B30" s="53" t="s">
         <v>72</v>
       </c>
@@ -53503,7 +53794,7 @@
       <c r="C46" s="60"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A47" s="290" t="s">
+      <c r="A47" s="246" t="s">
         <v>14</v>
       </c>
       <c r="B47" s="14" t="s">
@@ -53514,7 +53805,7 @@
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A48" s="278"/>
+      <c r="A48" s="247"/>
       <c r="B48" t="s">
         <v>23</v>
       </c>
@@ -53523,7 +53814,7 @@
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A49" s="278"/>
+      <c r="A49" s="247"/>
       <c r="B49" t="s">
         <v>26</v>
       </c>
@@ -53532,7 +53823,7 @@
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A50" s="278"/>
+      <c r="A50" s="247"/>
       <c r="B50" t="s">
         <v>29</v>
       </c>
@@ -53541,7 +53832,7 @@
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A51" s="278"/>
+      <c r="A51" s="247"/>
       <c r="B51" t="s">
         <v>32</v>
       </c>
@@ -53550,7 +53841,7 @@
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A52" s="278"/>
+      <c r="A52" s="247"/>
       <c r="B52" t="s">
         <v>35</v>
       </c>
@@ -53559,7 +53850,7 @@
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A53" s="278"/>
+      <c r="A53" s="247"/>
       <c r="B53" t="s">
         <v>38</v>
       </c>
@@ -53568,7 +53859,7 @@
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A54" s="280"/>
+      <c r="A54" s="248"/>
       <c r="B54" s="26" t="s">
         <v>41</v>
       </c>
@@ -53577,7 +53868,7 @@
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A55" s="282" t="s">
+      <c r="A55" s="251" t="s">
         <v>44</v>
       </c>
       <c r="B55" s="29" t="s">
@@ -53588,7 +53879,7 @@
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A56" s="283"/>
+      <c r="A56" s="258"/>
       <c r="B56" s="36" t="s">
         <v>50</v>
       </c>
@@ -53597,7 +53888,7 @@
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A57" s="284"/>
+      <c r="A57" s="259"/>
       <c r="B57" s="39" t="s">
         <v>52</v>
       </c>
@@ -53606,7 +53897,7 @@
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A58" s="282" t="s">
+      <c r="A58" s="251" t="s">
         <v>53</v>
       </c>
       <c r="B58" s="64" t="s">
@@ -53617,7 +53908,7 @@
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A59" s="283"/>
+      <c r="A59" s="258"/>
       <c r="B59" s="68" t="s">
         <v>55</v>
       </c>
@@ -53626,7 +53917,7 @@
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A60" s="283"/>
+      <c r="A60" s="258"/>
       <c r="B60" s="68" t="s">
         <v>56</v>
       </c>
@@ -53635,7 +53926,7 @@
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A61" s="283"/>
+      <c r="A61" s="258"/>
       <c r="B61" s="68" t="s">
         <v>58</v>
       </c>
@@ -53644,7 +53935,7 @@
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A62" s="283"/>
+      <c r="A62" s="258"/>
       <c r="B62" s="68" t="s">
         <v>61</v>
       </c>
@@ -53653,7 +53944,7 @@
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A63" s="283"/>
+      <c r="A63" s="258"/>
       <c r="B63" s="68" t="s">
         <v>64</v>
       </c>
@@ -53662,7 +53953,7 @@
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A64" s="283"/>
+      <c r="A64" s="258"/>
       <c r="B64" s="68" t="s">
         <v>66</v>
       </c>
@@ -53671,7 +53962,7 @@
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A65" s="284"/>
+      <c r="A65" s="259"/>
       <c r="B65" s="66" t="s">
         <v>67</v>
       </c>
@@ -53680,7 +53971,7 @@
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A66" s="278" t="s">
+      <c r="A66" s="247" t="s">
         <v>68</v>
       </c>
       <c r="B66" t="s">
@@ -53691,7 +53982,7 @@
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A67" s="278"/>
+      <c r="A67" s="247"/>
       <c r="B67" s="51" t="s">
         <v>70</v>
       </c>
@@ -53700,7 +53991,7 @@
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A68" s="278"/>
+      <c r="A68" s="247"/>
       <c r="B68" s="51" t="s">
         <v>72</v>
       </c>
@@ -53709,7 +54000,7 @@
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A69" s="278"/>
+      <c r="A69" s="247"/>
       <c r="B69" s="52" t="s">
         <v>74</v>
       </c>
@@ -53718,7 +54009,7 @@
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A70" s="278"/>
+      <c r="A70" s="247"/>
       <c r="B70" s="52" t="s">
         <v>76</v>
       </c>
@@ -53727,7 +54018,7 @@
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A71" s="277" t="s">
+      <c r="A71" s="254" t="s">
         <v>77</v>
       </c>
       <c r="B71" s="42" t="s">
@@ -53738,7 +54029,7 @@
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A72" s="278"/>
+      <c r="A72" s="247"/>
       <c r="B72" s="51" t="s">
         <v>70</v>
       </c>
@@ -53747,7 +54038,7 @@
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A73" s="280"/>
+      <c r="A73" s="248"/>
       <c r="B73" s="53" t="s">
         <v>72</v>
       </c>
